--- a/src/zia/statistics/lobulus_geometry/plotting/n_lobuli.xlsx
+++ b/src/zia/statistics/lobulus_geometry/plotting/n_lobuli.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,34 +527,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.027675124321077</v>
+        <v>2.01989806326531</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3779422925790901</v>
+        <v>0.369774652088004</v>
       </c>
       <c r="G2" t="n">
         <v>176</v>
       </c>
       <c r="H2" t="n">
-        <v>40.96117140196459</v>
+        <v>39.84035824895898</v>
       </c>
       <c r="I2" t="n">
-        <v>12.40571613950052</v>
+        <v>11.99684496541959</v>
       </c>
       <c r="J2" t="n">
-        <v>5.738362791471401</v>
+        <v>5.541792278821527</v>
       </c>
       <c r="K2" t="n">
-        <v>3.274538382883444</v>
+        <v>3.160800593725033</v>
       </c>
       <c r="L2" t="n">
-        <v>2.1098360770781</v>
+        <v>2.036076170190491</v>
       </c>
       <c r="M2" t="n">
-        <v>1.470550436101545</v>
+        <v>1.418957593435245</v>
       </c>
       <c r="N2" t="n">
-        <v>1.082804697251417</v>
+        <v>1.044734107855603</v>
       </c>
     </row>
     <row r="3">
@@ -579,34 +579,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.053359157075526</v>
+        <v>2.041590451602869</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3429307662081154</v>
+        <v>0.333244864647125</v>
       </c>
       <c r="G3" t="n">
         <v>163</v>
       </c>
       <c r="H3" t="n">
-        <v>33.93674619795858</v>
+        <v>32.72232829025062</v>
       </c>
       <c r="I3" t="n">
-        <v>10.05414861979595</v>
+        <v>9.630591470004934</v>
       </c>
       <c r="J3" t="n">
-        <v>4.6270696169896</v>
+        <v>4.425526818391701</v>
       </c>
       <c r="K3" t="n">
-        <v>2.635457144899555</v>
+        <v>2.519283721739452</v>
       </c>
       <c r="L3" t="n">
-        <v>1.696567685090883</v>
+        <v>1.621362946206917</v>
       </c>
       <c r="M3" t="n">
-        <v>1.181930947702118</v>
+        <v>1.129379085413703</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8700311655184579</v>
+        <v>0.831275974371255</v>
       </c>
     </row>
     <row r="4">
@@ -631,34 +631,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.97504422575791</v>
+        <v>1.968190091274026</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4290832181548727</v>
+        <v>0.4223687353962265</v>
       </c>
       <c r="G4" t="n">
         <v>141</v>
       </c>
       <c r="H4" t="n">
-        <v>47.89246997968598</v>
+        <v>47.11785199065288</v>
       </c>
       <c r="I4" t="n">
-        <v>16.06584663021951</v>
+        <v>15.71908914544487</v>
       </c>
       <c r="J4" t="n">
-        <v>7.622916077480695</v>
+        <v>7.447523823904493</v>
       </c>
       <c r="K4" t="n">
-        <v>4.391767294752236</v>
+        <v>4.288328789134532</v>
       </c>
       <c r="L4" t="n">
-        <v>2.842605266534513</v>
+        <v>2.774912735267333</v>
       </c>
       <c r="M4" t="n">
-        <v>1.986267034871736</v>
+        <v>1.938680804256144</v>
       </c>
       <c r="N4" t="n">
-        <v>1.464772623170321</v>
+        <v>1.429551677456839</v>
       </c>
     </row>
     <row r="5">
@@ -683,34 +683,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.93266277731144</v>
+        <v>1.914816770225321</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5787202625915574</v>
+        <v>0.561352785528257</v>
       </c>
       <c r="G5" t="n">
         <v>129</v>
       </c>
       <c r="H5" t="n">
-        <v>66.62358859403362</v>
+        <v>65.2573814638661</v>
       </c>
       <c r="I5" t="n">
-        <v>27.18648577343032</v>
+        <v>26.28816344800786</v>
       </c>
       <c r="J5" t="n">
-        <v>13.6851726209491</v>
+        <v>13.17524292562659</v>
       </c>
       <c r="K5" t="n">
-        <v>8.072581447257067</v>
+        <v>7.757715879594985</v>
       </c>
       <c r="L5" t="n">
-        <v>5.28552514643843</v>
+        <v>5.074804844222284</v>
       </c>
       <c r="M5" t="n">
-        <v>3.717039221423425</v>
+        <v>3.567047456818396</v>
       </c>
       <c r="N5" t="n">
-        <v>2.751923308595406</v>
+        <v>2.640055693845325</v>
       </c>
     </row>
     <row r="6">
@@ -735,34 +735,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.947606697962776</v>
+        <v>1.935111905833545</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4409839182127118</v>
+        <v>0.4298437062749274</v>
       </c>
       <c r="G6" t="n">
         <v>390</v>
       </c>
       <c r="H6" t="n">
-        <v>65.54065773204226</v>
+        <v>63.47869930963929</v>
       </c>
       <c r="I6" t="n">
-        <v>18.74817989799795</v>
+        <v>18.07633268759622</v>
       </c>
       <c r="J6" t="n">
-        <v>8.561165819217432</v>
+        <v>8.246264997222061</v>
       </c>
       <c r="K6" t="n">
-        <v>4.862353190545549</v>
+        <v>4.681833917038396</v>
       </c>
       <c r="L6" t="n">
-        <v>3.125936263021717</v>
+        <v>3.009379319984145</v>
       </c>
       <c r="M6" t="n">
-        <v>2.176118593499027</v>
+        <v>2.09478578526261</v>
       </c>
       <c r="N6" t="n">
-        <v>1.601151276219139</v>
+        <v>1.541222570895958</v>
       </c>
     </row>
     <row r="7">
@@ -787,34 +787,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.961478961527845</v>
+        <v>1.94964652011477</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4120361432353322</v>
+        <v>0.3993830540212935</v>
       </c>
       <c r="G7" t="n">
         <v>161</v>
       </c>
       <c r="H7" t="n">
-        <v>47.71245332527881</v>
+        <v>46.04190813639169</v>
       </c>
       <c r="I7" t="n">
-        <v>15.33694943787241</v>
+        <v>14.65333891766191</v>
       </c>
       <c r="J7" t="n">
-        <v>7.197322494055768</v>
+        <v>6.859432875436789</v>
       </c>
       <c r="K7" t="n">
-        <v>4.129253603571162</v>
+        <v>3.931717271534516</v>
       </c>
       <c r="L7" t="n">
-        <v>2.667350254322018</v>
+        <v>2.538617096554519</v>
       </c>
       <c r="M7" t="n">
-        <v>1.861751232315239</v>
+        <v>1.771463345776835</v>
       </c>
       <c r="N7" t="n">
-        <v>1.372026489872848</v>
+        <v>1.305293597292761</v>
       </c>
     </row>
     <row r="8">
@@ -839,34 +839,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.946683218328497</v>
+        <v>1.933255401280296</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3918738424614589</v>
+        <v>0.3811828278362828</v>
       </c>
       <c r="G8" t="n">
         <v>194</v>
       </c>
       <c r="H8" t="n">
-        <v>47.13887680011832</v>
+        <v>45.67454937280346</v>
       </c>
       <c r="I8" t="n">
-        <v>14.41093879436589</v>
+        <v>13.86727779867181</v>
       </c>
       <c r="J8" t="n">
-        <v>6.680557879732623</v>
+        <v>6.418107664010547</v>
       </c>
       <c r="K8" t="n">
-        <v>3.815293845867166</v>
+        <v>3.663206167006972</v>
       </c>
       <c r="L8" t="n">
-        <v>2.459199010147274</v>
+        <v>2.360497908629803</v>
       </c>
       <c r="M8" t="n">
-        <v>1.714417559109685</v>
+        <v>1.645351833050426</v>
       </c>
       <c r="N8" t="n">
-        <v>1.262532172106506</v>
+        <v>1.211556056147265</v>
       </c>
     </row>
     <row r="9">
@@ -891,34 +891,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2.02705612273965</v>
+        <v>2.01727573658101</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3165585655422127</v>
+        <v>0.3080035363301076</v>
       </c>
       <c r="G9" t="n">
         <v>183</v>
       </c>
       <c r="H9" t="n">
-        <v>31.10564854030173</v>
+        <v>29.95798478568861</v>
       </c>
       <c r="I9" t="n">
-        <v>8.912611104750702</v>
+        <v>8.537749329715794</v>
       </c>
       <c r="J9" t="n">
-        <v>4.071318594573394</v>
+        <v>3.895523699840926</v>
       </c>
       <c r="K9" t="n">
-        <v>2.312626295883707</v>
+        <v>2.21183101592764</v>
       </c>
       <c r="L9" t="n">
-        <v>1.486845125368524</v>
+        <v>1.421758123073218</v>
       </c>
       <c r="M9" t="n">
-        <v>1.035101067593163</v>
+        <v>0.9896814476429612</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7616253488408323</v>
+        <v>0.728157661508088</v>
       </c>
     </row>
     <row r="10">
@@ -943,34 +943,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2.056121435627949</v>
+        <v>2.043756139621714</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3082046499486663</v>
+        <v>0.3000608053925014</v>
       </c>
       <c r="G10" t="n">
         <v>217</v>
       </c>
       <c r="H10" t="n">
-        <v>29.78714730577266</v>
+        <v>28.73678983966149</v>
       </c>
       <c r="I10" t="n">
-        <v>8.301426763746639</v>
+        <v>7.976421216241715</v>
       </c>
       <c r="J10" t="n">
-        <v>3.769639195843471</v>
+        <v>3.618979069562612</v>
       </c>
       <c r="K10" t="n">
-        <v>2.136660838884701</v>
+        <v>2.050637854602881</v>
       </c>
       <c r="L10" t="n">
-        <v>1.372327413232354</v>
+        <v>1.31688825425277</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9548502631712774</v>
+        <v>0.9162046479588524</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7023425629312221</v>
+        <v>0.6738848041871308</v>
       </c>
     </row>
     <row r="11">
@@ -995,34 +995,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.962541675350053</v>
+        <v>1.95455357919846</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3869675784256106</v>
+        <v>0.38004566116903</v>
       </c>
       <c r="G11" t="n">
         <v>109</v>
       </c>
       <c r="H11" t="n">
-        <v>38.59095198195181</v>
+        <v>37.89729182769724</v>
       </c>
       <c r="I11" t="n">
-        <v>13.13571895492257</v>
+        <v>12.81632231706991</v>
       </c>
       <c r="J11" t="n">
-        <v>6.257008119389486</v>
+        <v>6.094235431251386</v>
       </c>
       <c r="K11" t="n">
-        <v>3.610235007691099</v>
+        <v>3.513961772020281</v>
       </c>
       <c r="L11" t="n">
-        <v>2.338433208924528</v>
+        <v>2.275342580557925</v>
       </c>
       <c r="M11" t="n">
-        <v>1.634627326552041</v>
+        <v>1.590242185360756</v>
       </c>
       <c r="N11" t="n">
-        <v>1.205747979994694</v>
+        <v>1.17288101077669</v>
       </c>
     </row>
     <row r="12">
@@ -1047,34 +1047,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1.964678375653258</v>
+        <v>1.949467041766575</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3296830916695338</v>
+        <v>0.3149086628899231</v>
       </c>
       <c r="G12" t="n">
         <v>89</v>
       </c>
       <c r="H12" t="n">
-        <v>29.1147205570125</v>
+        <v>27.64293382206832</v>
       </c>
       <c r="I12" t="n">
-        <v>9.645091451171961</v>
+        <v>9.009449269545012</v>
       </c>
       <c r="J12" t="n">
-        <v>4.561329271444664</v>
+        <v>4.242810049255215</v>
       </c>
       <c r="K12" t="n">
-        <v>2.624597126631568</v>
+        <v>2.437416657782628</v>
       </c>
       <c r="L12" t="n">
-        <v>1.6977662381285</v>
+        <v>1.57547965114324</v>
       </c>
       <c r="M12" t="n">
-        <v>1.185916786558002</v>
+        <v>1.100033115315262</v>
       </c>
       <c r="N12" t="n">
-        <v>0.874376881681904</v>
+        <v>0.8108464928655728</v>
       </c>
     </row>
     <row r="13">
@@ -1099,34 +1099,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1.866618157513416</v>
+        <v>1.850996109965676</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3467273084476595</v>
+        <v>0.3252596706564639</v>
       </c>
       <c r="G13" t="n">
         <v>91</v>
       </c>
       <c r="H13" t="n">
-        <v>33.50092137666532</v>
+        <v>31.18710151633898</v>
       </c>
       <c r="I13" t="n">
-        <v>11.56969952724877</v>
+        <v>10.49415740323018</v>
       </c>
       <c r="J13" t="n">
-        <v>5.532894062272939</v>
+        <v>4.983336877542166</v>
       </c>
       <c r="K13" t="n">
-        <v>3.197302605219433</v>
+        <v>2.871933789596091</v>
       </c>
       <c r="L13" t="n">
-        <v>2.072487881906124</v>
+        <v>1.859160470163874</v>
       </c>
       <c r="M13" t="n">
-        <v>1.449313326835439</v>
+        <v>1.29919401137425</v>
       </c>
       <c r="N13" t="n">
-        <v>1.069319935849002</v>
+        <v>0.9581390653120347</v>
       </c>
     </row>
     <row r="14">
@@ -1151,34 +1151,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1.878511825581916</v>
+        <v>1.858491062097516</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3717467226275195</v>
+        <v>0.3422495795814258</v>
       </c>
       <c r="G14" t="n">
         <v>84</v>
       </c>
       <c r="H14" t="n">
-        <v>35.06053295835487</v>
+        <v>32.16030590679565</v>
       </c>
       <c r="I14" t="n">
-        <v>12.75931534985254</v>
+        <v>11.27870761051581</v>
       </c>
       <c r="J14" t="n">
-        <v>6.193453851206288</v>
+        <v>5.416824976979878</v>
       </c>
       <c r="K14" t="n">
-        <v>3.599943219409665</v>
+        <v>3.135422566593419</v>
       </c>
       <c r="L14" t="n">
-        <v>2.340066981550168</v>
+        <v>2.034002401318065</v>
       </c>
       <c r="M14" t="n">
-        <v>1.638997908408271</v>
+        <v>1.423030410969445</v>
       </c>
       <c r="N14" t="n">
-        <v>1.210427654066921</v>
+        <v>1.05021191647424</v>
       </c>
     </row>
     <row r="15">
@@ -1203,34 +1203,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1.900963584741721</v>
+        <v>1.88724066108023</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3422724205654411</v>
+        <v>0.3244188949039107</v>
       </c>
       <c r="G15" t="n">
         <v>129</v>
       </c>
       <c r="H15" t="n">
-        <v>35.93782798574752</v>
+        <v>33.58565418762723</v>
       </c>
       <c r="I15" t="n">
-        <v>11.3575035626013</v>
+        <v>10.43376769649029</v>
       </c>
       <c r="J15" t="n">
-        <v>5.307376915985476</v>
+        <v>4.855404788607021</v>
       </c>
       <c r="K15" t="n">
-        <v>3.040121163593666</v>
+        <v>2.776892204221663</v>
       </c>
       <c r="L15" t="n">
-        <v>1.962326034675447</v>
+        <v>1.791091010696248</v>
       </c>
       <c r="M15" t="n">
-        <v>1.369090024291909</v>
+        <v>1.249112516297929</v>
       </c>
       <c r="N15" t="n">
-        <v>1.008702282523954</v>
+        <v>0.9200789738643661</v>
       </c>
     </row>
     <row r="16">
@@ -1255,34 +1255,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1.980539964385784</v>
+        <v>1.964282928487492</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2327965956806541</v>
+        <v>0.2058158581173092</v>
       </c>
       <c r="G16" t="n">
         <v>108</v>
       </c>
       <c r="H16" t="n">
-        <v>17.74259881931937</v>
+        <v>14.59104729482512</v>
       </c>
       <c r="I16" t="n">
-        <v>5.058979129321995</v>
+        <v>4.059052265189217</v>
       </c>
       <c r="J16" t="n">
-        <v>2.308510827518785</v>
+        <v>1.842494323402015</v>
       </c>
       <c r="K16" t="n">
-        <v>1.310795382920833</v>
+        <v>1.044196740926191</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8425905912583799</v>
+        <v>0.6706201119771825</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5865305691685599</v>
+        <v>0.4665936935709176</v>
       </c>
       <c r="N16" t="n">
-        <v>0.4315421991533119</v>
+        <v>0.3431969040528762</v>
       </c>
     </row>
     <row r="17">
@@ -1307,34 +1307,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1.884450525191225</v>
+        <v>1.876635204825408</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3087484709598031</v>
+        <v>0.3001432810207037</v>
       </c>
       <c r="G17" t="n">
         <v>163</v>
       </c>
       <c r="H17" t="n">
-        <v>32.91851086636527</v>
+        <v>31.66987917251652</v>
       </c>
       <c r="I17" t="n">
-        <v>9.698637017420573</v>
+        <v>9.268006509327783</v>
       </c>
       <c r="J17" t="n">
-        <v>4.457864614310302</v>
+        <v>4.253474006812326</v>
       </c>
       <c r="K17" t="n">
-        <v>2.53791532579294</v>
+        <v>2.420209530791995</v>
       </c>
       <c r="L17" t="n">
-        <v>1.633421481810425</v>
+        <v>1.557258030145687</v>
       </c>
       <c r="M17" t="n">
-        <v>1.137804395695259</v>
+        <v>1.08459533325794</v>
       </c>
       <c r="N17" t="n">
-        <v>0.8374889038650192</v>
+        <v>0.7982547388626983</v>
       </c>
     </row>
     <row r="18">
@@ -1359,34 +1359,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1.811434676685927</v>
+        <v>1.808581694180754</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2918877867150161</v>
+        <v>0.2874530187777741</v>
       </c>
       <c r="G18" t="n">
         <v>322</v>
       </c>
       <c r="H18" t="n">
-        <v>35.49992930120661</v>
+        <v>34.64157884380415</v>
       </c>
       <c r="I18" t="n">
-        <v>9.674968415541892</v>
+        <v>9.420506222745576</v>
       </c>
       <c r="J18" t="n">
-        <v>4.372981928719266</v>
+        <v>4.25606748307101</v>
       </c>
       <c r="K18" t="n">
-        <v>2.474504732291599</v>
+        <v>2.407962484814499</v>
       </c>
       <c r="L18" t="n">
-        <v>1.588076485188432</v>
+        <v>1.545256023424703</v>
       </c>
       <c r="M18" t="n">
-        <v>1.104495338128553</v>
+        <v>1.074670293025128</v>
       </c>
       <c r="N18" t="n">
-        <v>0.8122050929896522</v>
+        <v>0.7902534187538051</v>
       </c>
     </row>
     <row r="19">
@@ -1411,34 +1411,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1.803437477242384</v>
+        <v>1.7986534195647</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2312047819576145</v>
+        <v>0.2258057772646862</v>
       </c>
       <c r="G19" t="n">
         <v>332</v>
       </c>
       <c r="H19" t="n">
-        <v>23.47049234469323</v>
+        <v>22.57193906104408</v>
       </c>
       <c r="I19" t="n">
-        <v>6.196147083197669</v>
+        <v>5.946185686086303</v>
       </c>
       <c r="J19" t="n">
-        <v>2.782695204268165</v>
+        <v>2.669309112890448</v>
       </c>
       <c r="K19" t="n">
-        <v>1.571026937920703</v>
+        <v>1.506786555516454</v>
       </c>
       <c r="L19" t="n">
-        <v>1.007172982797453</v>
+        <v>0.9659215809361376</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7000746164537182</v>
+        <v>0.6713757179563035</v>
       </c>
       <c r="N19" t="n">
-        <v>0.5146284382739041</v>
+        <v>0.4935204063213856</v>
       </c>
     </row>
     <row r="20">
@@ -1463,34 +1463,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.844746694965231</v>
+        <v>1.842164492405197</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2204325816813731</v>
+        <v>0.2153864253389289</v>
       </c>
       <c r="G20" t="n">
         <v>263</v>
       </c>
       <c r="H20" t="n">
-        <v>20.25123472410173</v>
+        <v>19.4526858430905</v>
       </c>
       <c r="I20" t="n">
-        <v>5.373109342104992</v>
+        <v>5.148792696906024</v>
       </c>
       <c r="J20" t="n">
-        <v>2.415464214010798</v>
+        <v>2.313514554865452</v>
       </c>
       <c r="K20" t="n">
-        <v>1.364180059737143</v>
+        <v>1.306379574258819</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8747085979651283</v>
+        <v>0.8375806894633746</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6080544578269891</v>
+        <v>0.5822198193997635</v>
       </c>
       <c r="N20" t="n">
-        <v>0.4470080759679161</v>
+        <v>0.4280047145833873</v>
       </c>
     </row>
     <row r="21">
@@ -1515,34 +1515,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1.836943790527726</v>
+        <v>1.832678765806504</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2385260739560755</v>
+        <v>0.2314990101819192</v>
       </c>
       <c r="G21" t="n">
         <v>239</v>
       </c>
       <c r="H21" t="n">
-        <v>23.375083091054</v>
+        <v>22.23740731714832</v>
       </c>
       <c r="I21" t="n">
-        <v>6.306359735592648</v>
+        <v>5.976400980637637</v>
       </c>
       <c r="J21" t="n">
-        <v>2.844524821587795</v>
+        <v>2.693598069837134</v>
       </c>
       <c r="K21" t="n">
-        <v>1.608420301131314</v>
+        <v>1.522656753468842</v>
       </c>
       <c r="L21" t="n">
-        <v>1.03188897608787</v>
+        <v>0.976740517183051</v>
       </c>
       <c r="M21" t="n">
-        <v>0.7175361722980648</v>
+        <v>0.6791400941752441</v>
       </c>
       <c r="N21" t="n">
-        <v>0.5275896650283324</v>
+        <v>0.4993365146530976</v>
       </c>
     </row>
     <row r="22">
@@ -1567,34 +1567,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1.811652417872037</v>
+        <v>1.806631902987686</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2524617698827712</v>
+        <v>0.2452887686647225</v>
       </c>
       <c r="G22" t="n">
         <v>267</v>
       </c>
       <c r="H22" t="n">
-        <v>26.84114099305344</v>
+        <v>25.60928267899016</v>
       </c>
       <c r="I22" t="n">
-        <v>7.257473049909137</v>
+        <v>6.89857807420059</v>
       </c>
       <c r="J22" t="n">
-        <v>3.27499887544236</v>
+        <v>3.110685778942123</v>
       </c>
       <c r="K22" t="n">
-        <v>1.852125999919566</v>
+        <v>1.758725144162693</v>
       </c>
       <c r="L22" t="n">
-        <v>1.188328190787077</v>
+        <v>1.128259550836525</v>
       </c>
       <c r="M22" t="n">
-        <v>0.8263516875330356</v>
+        <v>0.7845265446389321</v>
       </c>
       <c r="N22" t="n">
-        <v>0.6076144433567089</v>
+        <v>0.5768365216992195</v>
       </c>
     </row>
     <row r="23">
@@ -1619,34 +1619,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.891754459579144</v>
+        <v>1.891182204064268</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2672131117134728</v>
+        <v>0.266500056982511</v>
       </c>
       <c r="G23" t="n">
         <v>157</v>
       </c>
       <c r="H23" t="n">
-        <v>25.65005856997001</v>
+        <v>25.54852404925201</v>
       </c>
       <c r="I23" t="n">
-        <v>7.307976553069947</v>
+        <v>7.275026866760731</v>
       </c>
       <c r="J23" t="n">
-        <v>3.33421158947067</v>
+        <v>3.318781308017984</v>
       </c>
       <c r="K23" t="n">
-        <v>1.893083022048433</v>
+        <v>1.884240310061839</v>
       </c>
       <c r="L23" t="n">
-        <v>1.216855292800376</v>
+        <v>1.211146619212018</v>
       </c>
       <c r="M23" t="n">
-        <v>0.8470444195999604</v>
+        <v>0.8430612631266879</v>
       </c>
       <c r="N23" t="n">
-        <v>0.6232103976528489</v>
+        <v>0.6202756211783238</v>
       </c>
     </row>
     <row r="24">
@@ -1671,34 +1671,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5.635987905730309</v>
+        <v>5.637085069515622</v>
       </c>
       <c r="F24" t="n">
-        <v>0.693978318147591</v>
+        <v>0.6949056986685912</v>
       </c>
       <c r="G24" t="n">
         <v>176</v>
       </c>
       <c r="H24" t="n">
-        <v>20.57467356918033</v>
+        <v>20.61616456103634</v>
       </c>
       <c r="I24" t="n">
-        <v>5.637985328619707</v>
+        <v>5.650449974887732</v>
       </c>
       <c r="J24" t="n">
-        <v>2.551173655010625</v>
+        <v>2.556916300859129</v>
       </c>
       <c r="K24" t="n">
-        <v>1.444193818928225</v>
+        <v>1.447465467650935</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9270224989930363</v>
+        <v>0.9291287939780871</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6448033799267942</v>
+        <v>0.6462708097383164</v>
       </c>
       <c r="N24" t="n">
-        <v>0.4741940074094979</v>
+        <v>0.4752742203873285</v>
       </c>
     </row>
     <row r="25">
@@ -1723,34 +1723,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5.680404641341724</v>
+        <v>5.681806326782803</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6415972647037259</v>
+        <v>0.642495381380062</v>
       </c>
       <c r="G25" t="n">
         <v>163</v>
       </c>
       <c r="H25" t="n">
-        <v>17.49913440894094</v>
+        <v>17.53515993955341</v>
       </c>
       <c r="I25" t="n">
-        <v>4.757875819071002</v>
+        <v>4.76853053191491</v>
       </c>
       <c r="J25" t="n">
-        <v>2.149467991089054</v>
+        <v>2.154361000578492</v>
       </c>
       <c r="K25" t="n">
-        <v>1.216091715662175</v>
+        <v>1.218876105009522</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7803947186300383</v>
+        <v>0.7821863499704604</v>
       </c>
       <c r="M25" t="n">
-        <v>0.542734747623499</v>
+        <v>0.5439825885205543</v>
       </c>
       <c r="N25" t="n">
-        <v>0.3990964498181164</v>
+        <v>0.400014854632217</v>
       </c>
     </row>
     <row r="26">
@@ -1775,34 +1775,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5.539376229831118</v>
+        <v>5.540188149212362</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8005031501112283</v>
+        <v>0.8011552122196162</v>
       </c>
       <c r="G26" t="n">
         <v>141</v>
       </c>
       <c r="H26" t="n">
-        <v>26.14101076544954</v>
+        <v>26.16945825361241</v>
       </c>
       <c r="I26" t="n">
-        <v>7.5907276561311</v>
+        <v>7.600323923078252</v>
       </c>
       <c r="J26" t="n">
-        <v>3.477667885780217</v>
+        <v>3.482200107588161</v>
       </c>
       <c r="K26" t="n">
-        <v>1.977526959690584</v>
+        <v>1.98013229376511</v>
       </c>
       <c r="L26" t="n">
-        <v>1.272039789463583</v>
+        <v>1.273724180477191</v>
       </c>
       <c r="M26" t="n">
-        <v>0.8858027576331197</v>
+        <v>0.8869789535322447</v>
       </c>
       <c r="N26" t="n">
-        <v>0.6518803711595276</v>
+        <v>0.6527474048140439</v>
       </c>
     </row>
     <row r="27">
@@ -1827,34 +1827,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5.42311954940064</v>
+        <v>5.425841460475396</v>
       </c>
       <c r="F27" t="n">
-        <v>1.068253013467692</v>
+        <v>1.070641499672923</v>
       </c>
       <c r="G27" t="n">
         <v>129</v>
       </c>
       <c r="H27" t="n">
-        <v>40.77692749882894</v>
+        <v>40.87356846723716</v>
       </c>
       <c r="I27" t="n">
-        <v>13.36203953336024</v>
+        <v>13.40357869536058</v>
       </c>
       <c r="J27" t="n">
-        <v>6.301294697237819</v>
+        <v>6.322083849055537</v>
       </c>
       <c r="K27" t="n">
-        <v>3.621880275341267</v>
+        <v>3.634091356912886</v>
       </c>
       <c r="L27" t="n">
-        <v>2.34167199654099</v>
+        <v>2.34964777447732</v>
       </c>
       <c r="M27" t="n">
-        <v>1.635231074896693</v>
+        <v>1.640831873221496</v>
       </c>
       <c r="N27" t="n">
-        <v>1.205448273375367</v>
+        <v>1.209591011001107</v>
       </c>
     </row>
     <row r="28">
@@ -1879,34 +1879,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5.452928027250154</v>
+        <v>5.455041030763025</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8044747374713572</v>
+        <v>0.8058470285001765</v>
       </c>
       <c r="G28" t="n">
         <v>390</v>
       </c>
       <c r="H28" t="n">
-        <v>30.80381672225893</v>
+        <v>30.8786252286505</v>
       </c>
       <c r="I28" t="n">
-        <v>8.185869617915861</v>
+        <v>8.207004409899486</v>
       </c>
       <c r="J28" t="n">
-        <v>3.681088650332423</v>
+        <v>3.690705141395602</v>
       </c>
       <c r="K28" t="n">
-        <v>2.079198261944494</v>
+        <v>2.084652549917724</v>
       </c>
       <c r="L28" t="n">
-        <v>1.333245732761679</v>
+        <v>1.336749932706561</v>
       </c>
       <c r="M28" t="n">
-        <v>0.9268332304394937</v>
+        <v>0.9292718011455191</v>
       </c>
       <c r="N28" t="n">
-        <v>0.6813683018088011</v>
+        <v>0.6831621690996698</v>
       </c>
     </row>
     <row r="29">
@@ -1931,34 +1931,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5.484880751187162</v>
+        <v>5.486547874674134</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7498409949617413</v>
+        <v>0.7512257146246594</v>
       </c>
       <c r="G29" t="n">
         <v>161</v>
       </c>
       <c r="H29" t="n">
-        <v>24.3719419214571</v>
+        <v>24.43575732383811</v>
       </c>
       <c r="I29" t="n">
-        <v>6.873342836326438</v>
+        <v>6.893651760254365</v>
       </c>
       <c r="J29" t="n">
-        <v>3.129031976674809</v>
+        <v>3.13850273154111</v>
       </c>
       <c r="K29" t="n">
-        <v>1.775174447779794</v>
+        <v>1.780593650721642</v>
       </c>
       <c r="L29" t="n">
-        <v>1.140639224828624</v>
+        <v>1.144135255653416</v>
       </c>
       <c r="M29" t="n">
-        <v>0.7938290334372017</v>
+        <v>0.7962673943394931</v>
       </c>
       <c r="N29" t="n">
-        <v>0.5839852548684753</v>
+        <v>0.5857814070023557</v>
       </c>
     </row>
     <row r="30">
@@ -1983,34 +1983,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5.476557651802417</v>
+        <v>5.47824590498048</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7285796328173241</v>
+        <v>0.7297962409385975</v>
       </c>
       <c r="G30" t="n">
         <v>194</v>
       </c>
       <c r="H30" t="n">
-        <v>23.85253840431526</v>
+        <v>23.90950802852009</v>
       </c>
       <c r="I30" t="n">
-        <v>6.568872842363077</v>
+        <v>6.586159905894599</v>
       </c>
       <c r="J30" t="n">
-        <v>2.97547124101689</v>
+        <v>2.983452207050604</v>
       </c>
       <c r="K30" t="n">
-        <v>1.68500923403107</v>
+        <v>1.689559469396182</v>
       </c>
       <c r="L30" t="n">
-        <v>1.081788468962406</v>
+        <v>1.084718941740745</v>
       </c>
       <c r="M30" t="n">
-        <v>0.752524179015161</v>
+        <v>0.7545661915938747</v>
       </c>
       <c r="N30" t="n">
-        <v>0.5534444677793589</v>
+        <v>0.5549478187775668</v>
       </c>
     </row>
     <row r="31">
@@ -2035,34 +2035,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5.643010383839449</v>
+        <v>5.644175934709512</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5866587931042349</v>
+        <v>0.5875482287226086</v>
       </c>
       <c r="G31" t="n">
         <v>183</v>
       </c>
       <c r="H31" t="n">
-        <v>15.22630046250078</v>
+        <v>15.26287014006305</v>
       </c>
       <c r="I31" t="n">
-        <v>4.059926163235838</v>
+        <v>4.070327712487904</v>
       </c>
       <c r="J31" t="n">
-        <v>1.826928921753264</v>
+        <v>1.831668082773594</v>
       </c>
       <c r="K31" t="n">
-        <v>1.032155621181774</v>
+        <v>1.034844869725958</v>
       </c>
       <c r="L31" t="n">
-        <v>0.6619236136454184</v>
+        <v>0.6636517525815511</v>
       </c>
       <c r="M31" t="n">
-        <v>0.4601777717512684</v>
+        <v>0.4613805288437937</v>
       </c>
       <c r="N31" t="n">
-        <v>0.3383154978066735</v>
+        <v>0.3392003378643242</v>
       </c>
     </row>
     <row r="32">
@@ -2087,34 +2087,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5.708860873716968</v>
+        <v>5.710436697378626</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5793117819870267</v>
+        <v>0.5800946222405967</v>
       </c>
       <c r="G32" t="n">
         <v>217</v>
       </c>
       <c r="H32" t="n">
-        <v>14.74793353559155</v>
+        <v>14.77749818909112</v>
       </c>
       <c r="I32" t="n">
-        <v>3.885010613068153</v>
+        <v>3.893217937920317</v>
       </c>
       <c r="J32" t="n">
-        <v>1.744017845022851</v>
+        <v>1.747739283027284</v>
       </c>
       <c r="K32" t="n">
-        <v>0.9844716024272714</v>
+        <v>0.9865797260234304</v>
       </c>
       <c r="L32" t="n">
-        <v>0.63109254152963</v>
+        <v>0.6324461632840233</v>
       </c>
       <c r="M32" t="n">
-        <v>0.4386485078874466</v>
+        <v>0.4395901976816665</v>
       </c>
       <c r="N32" t="n">
-        <v>0.3224452991214227</v>
+        <v>0.3231378963191532</v>
       </c>
     </row>
     <row r="33">
@@ -2139,34 +2139,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5.532632770496556</v>
+        <v>5.53365462194102</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7238344423926499</v>
+        <v>0.7246658926186493</v>
       </c>
       <c r="G33" t="n">
         <v>109</v>
       </c>
       <c r="H33" t="n">
-        <v>21.18895665898832</v>
+        <v>21.22186425378384</v>
       </c>
       <c r="I33" t="n">
-        <v>6.201371708491342</v>
+        <v>6.212649593191637</v>
       </c>
       <c r="J33" t="n">
-        <v>2.846123773855754</v>
+        <v>2.851469023418187</v>
       </c>
       <c r="K33" t="n">
-        <v>1.619444610549418</v>
+        <v>1.622521270627559</v>
       </c>
       <c r="L33" t="n">
-        <v>1.042017913189239</v>
+        <v>1.044008229728243</v>
       </c>
       <c r="M33" t="n">
-        <v>0.725743483244089</v>
+        <v>0.7271337655449097</v>
       </c>
       <c r="N33" t="n">
-        <v>0.5341428360083158</v>
+        <v>0.5351678896001036</v>
       </c>
     </row>
     <row r="34">
@@ -2191,34 +2191,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5.512613377371489</v>
+        <v>5.515070328431229</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6030912576102199</v>
+        <v>0.6054412021314753</v>
       </c>
       <c r="G34" t="n">
         <v>89</v>
       </c>
       <c r="H34" t="n">
-        <v>15.24200869046496</v>
+        <v>15.32919586064948</v>
       </c>
       <c r="I34" t="n">
-        <v>4.372067551381297</v>
+        <v>4.400786474826846</v>
       </c>
       <c r="J34" t="n">
-        <v>1.99765988527757</v>
+        <v>2.011152623418375</v>
       </c>
       <c r="K34" t="n">
-        <v>1.134827644481691</v>
+        <v>1.142569113375514</v>
       </c>
       <c r="L34" t="n">
-        <v>0.7296389644711391</v>
+        <v>0.7346394627790901</v>
       </c>
       <c r="M34" t="n">
-        <v>0.5079661819779453</v>
+        <v>0.5114562734910714</v>
       </c>
       <c r="N34" t="n">
-        <v>0.373765611289639</v>
+        <v>0.3763375700551271</v>
       </c>
     </row>
     <row r="35">
@@ -2243,34 +2243,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5.321347203364377</v>
+        <v>5.324051834839823</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6152640835248844</v>
+        <v>0.6189843483771933</v>
       </c>
       <c r="G35" t="n">
         <v>91</v>
       </c>
       <c r="H35" t="n">
-        <v>16.759201116294</v>
+        <v>16.91068202975395</v>
       </c>
       <c r="I35" t="n">
-        <v>4.861263709134423</v>
+        <v>4.912318816836569</v>
       </c>
       <c r="J35" t="n">
-        <v>2.22664409120085</v>
+        <v>2.25075227483147</v>
       </c>
       <c r="K35" t="n">
-        <v>1.266040287479995</v>
+        <v>1.279897832273186</v>
       </c>
       <c r="L35" t="n">
-        <v>0.8143444370804107</v>
+        <v>0.8233032705190884</v>
       </c>
       <c r="M35" t="n">
-        <v>0.5670675414022045</v>
+        <v>0.5733233055276218</v>
       </c>
       <c r="N35" t="n">
-        <v>0.4173109735893558</v>
+        <v>0.4219223641908881</v>
       </c>
     </row>
     <row r="36">
@@ -2295,34 +2295,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5.327099350756062</v>
+        <v>5.333902541733471</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6314100183216638</v>
+        <v>0.6409332494744789</v>
       </c>
       <c r="G36" t="n">
         <v>84</v>
       </c>
       <c r="H36" t="n">
-        <v>17.17425795701142</v>
+        <v>17.55147578744817</v>
       </c>
       <c r="I36" t="n">
-        <v>5.071188608029207</v>
+        <v>5.203271582545684</v>
       </c>
       <c r="J36" t="n">
-        <v>2.332078603893219</v>
+        <v>2.394984148872662</v>
       </c>
       <c r="K36" t="n">
-        <v>1.327923495794885</v>
+        <v>1.36419538753837</v>
       </c>
       <c r="L36" t="n">
-        <v>0.8547354226677926</v>
+        <v>0.878219604310756</v>
       </c>
       <c r="M36" t="n">
-        <v>0.5954175120467655</v>
+        <v>0.6118292639044839</v>
       </c>
       <c r="N36" t="n">
-        <v>0.4382738054212994</v>
+        <v>0.4503775262395084</v>
       </c>
     </row>
     <row r="37">
@@ -2347,34 +2347,34 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5.385623355175486</v>
+        <v>5.388663590755486</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6009108479689694</v>
+        <v>0.6051070100552213</v>
       </c>
       <c r="G37" t="n">
         <v>129</v>
       </c>
       <c r="H37" t="n">
-        <v>16.65966524345711</v>
+        <v>16.84608833938601</v>
       </c>
       <c r="I37" t="n">
-        <v>4.61158788276966</v>
+        <v>4.668794945873633</v>
       </c>
       <c r="J37" t="n">
-        <v>2.091125225025453</v>
+        <v>2.117598060009136</v>
       </c>
       <c r="K37" t="n">
-        <v>1.184659537962624</v>
+        <v>1.199765355228436</v>
       </c>
       <c r="L37" t="n">
-        <v>0.7606969887889211</v>
+        <v>0.7704293653775404</v>
       </c>
       <c r="M37" t="n">
-        <v>0.5292153502586691</v>
+        <v>0.535998523334734</v>
       </c>
       <c r="N37" t="n">
-        <v>0.3892349224564039</v>
+        <v>0.3942294139146937</v>
       </c>
     </row>
     <row r="38">
@@ -2399,34 +2399,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5.538950347674866</v>
+        <v>5.541943194508104</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3671783774397002</v>
+        <v>0.3722691767716104</v>
       </c>
       <c r="G38" t="n">
         <v>108</v>
       </c>
       <c r="H38" t="n">
-        <v>6.355249227180789</v>
+        <v>6.515364155283917</v>
       </c>
       <c r="I38" t="n">
-        <v>1.662169976653316</v>
+        <v>1.706031427796341</v>
       </c>
       <c r="J38" t="n">
-        <v>0.745113120581728</v>
+        <v>0.7649492947485368</v>
       </c>
       <c r="K38" t="n">
-        <v>0.420395049929485</v>
+        <v>0.4316214665803185</v>
       </c>
       <c r="L38" t="n">
-        <v>0.2694303892947373</v>
+        <v>0.2766357450313338</v>
       </c>
       <c r="M38" t="n">
-        <v>0.187247171285129</v>
+        <v>0.1922586299607299</v>
       </c>
       <c r="N38" t="n">
-        <v>0.1376326585779514</v>
+        <v>0.1413179815016966</v>
       </c>
     </row>
     <row r="39">
@@ -2451,34 +2451,34 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5.373376390504132</v>
+        <v>5.374496434348087</v>
       </c>
       <c r="F39" t="n">
-        <v>0.5778717451026887</v>
+        <v>0.5789011602909603</v>
       </c>
       <c r="G39" t="n">
         <v>163</v>
       </c>
       <c r="H39" t="n">
-        <v>16.02494527727716</v>
+        <v>16.07041404516293</v>
       </c>
       <c r="I39" t="n">
-        <v>4.32514860312862</v>
+        <v>4.338400566824338</v>
       </c>
       <c r="J39" t="n">
-        <v>1.951049616120555</v>
+        <v>1.957117220077781</v>
       </c>
       <c r="K39" t="n">
-        <v>1.10324277476773</v>
+        <v>1.106691887309787</v>
       </c>
       <c r="L39" t="n">
-        <v>0.707800008294583</v>
+        <v>0.710018254006843</v>
       </c>
       <c r="M39" t="n">
-        <v>0.4921808205995836</v>
+        <v>0.4937253713983702</v>
       </c>
       <c r="N39" t="n">
-        <v>0.3618921457531998</v>
+        <v>0.363028740937142</v>
       </c>
     </row>
     <row r="40">
@@ -2503,34 +2503,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5.246950264694122</v>
+        <v>5.247641536265799</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5451626140071784</v>
+        <v>0.5460353002057146</v>
       </c>
       <c r="G40" t="n">
         <v>322</v>
       </c>
       <c r="H40" t="n">
-        <v>15.77589032464339</v>
+        <v>15.81999030010943</v>
       </c>
       <c r="I40" t="n">
-        <v>4.09442248826719</v>
+        <v>4.106305928985025</v>
       </c>
       <c r="J40" t="n">
-        <v>1.832689854263186</v>
+        <v>1.83804691207618</v>
       </c>
       <c r="K40" t="n">
-        <v>1.033461431992042</v>
+        <v>1.036489862214919</v>
       </c>
       <c r="L40" t="n">
-        <v>0.6621804147702077</v>
+        <v>0.66412310334238</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4601366431250279</v>
+        <v>0.4614874319380723</v>
       </c>
       <c r="N40" t="n">
-        <v>0.3381877887454362</v>
+        <v>0.3391809590425209</v>
       </c>
     </row>
     <row r="41">
@@ -2555,34 +2555,34 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5.227961540435168</v>
+        <v>5.229293788007805</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4258131433223984</v>
+        <v>0.4270859564476012</v>
       </c>
       <c r="G41" t="n">
         <v>332</v>
       </c>
       <c r="H41" t="n">
-        <v>9.89033856273277</v>
+        <v>9.942863477716408</v>
       </c>
       <c r="I41" t="n">
-        <v>2.529091195301163</v>
+        <v>2.542831131755761</v>
       </c>
       <c r="J41" t="n">
-        <v>1.128817778743824</v>
+        <v>1.134976576920914</v>
       </c>
       <c r="K41" t="n">
-        <v>0.6359059255057951</v>
+        <v>0.6393806072911864</v>
       </c>
       <c r="L41" t="n">
-        <v>0.4072606134002845</v>
+        <v>0.4094874880915794</v>
       </c>
       <c r="M41" t="n">
-        <v>0.2829259171377615</v>
+        <v>0.2844735209992535</v>
       </c>
       <c r="N41" t="n">
-        <v>0.207910945768731</v>
+        <v>0.2090484765683265</v>
       </c>
     </row>
     <row r="42">
@@ -2607,34 +2607,34 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5.314410837664624</v>
+        <v>5.315071285749745</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3976461319381989</v>
+        <v>0.3985307431043084</v>
       </c>
       <c r="G42" t="n">
         <v>263</v>
       </c>
       <c r="H42" t="n">
-        <v>8.330602655966095</v>
+        <v>8.364515316921137</v>
       </c>
       <c r="I42" t="n">
-        <v>2.133331082962384</v>
+        <v>2.142227775155052</v>
       </c>
       <c r="J42" t="n">
-        <v>0.9524392227584044</v>
+        <v>0.9564292632558952</v>
       </c>
       <c r="K42" t="n">
-        <v>0.5365972371810237</v>
+        <v>0.5388487788285392</v>
       </c>
       <c r="L42" t="n">
-        <v>0.3436746628028426</v>
+        <v>0.3451177730685357</v>
       </c>
       <c r="M42" t="n">
-        <v>0.2387582926554296</v>
+        <v>0.239761255016901</v>
       </c>
       <c r="N42" t="n">
-        <v>0.175456514854861</v>
+        <v>0.1761937409887538</v>
       </c>
     </row>
     <row r="43">
@@ -2659,34 +2659,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5.288897764652871</v>
+        <v>5.290024598912718</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4280333291601589</v>
+        <v>0.4294870589121006</v>
       </c>
       <c r="G43" t="n">
         <v>239</v>
       </c>
       <c r="H43" t="n">
-        <v>9.657903061531599</v>
+        <v>9.716971401834385</v>
       </c>
       <c r="I43" t="n">
-        <v>2.489938909581241</v>
+        <v>2.5056464969674</v>
       </c>
       <c r="J43" t="n">
-        <v>1.113081881446061</v>
+        <v>1.120144809713439</v>
       </c>
       <c r="K43" t="n">
-        <v>0.6273868875079686</v>
+        <v>0.6313760758719047</v>
       </c>
       <c r="L43" t="n">
-        <v>0.401907417711339</v>
+        <v>0.4044653459113829</v>
       </c>
       <c r="M43" t="n">
-        <v>0.2792458579292872</v>
+        <v>0.2810240296508015</v>
       </c>
       <c r="N43" t="n">
-        <v>0.2052238377943872</v>
+        <v>0.2065310625569395</v>
       </c>
     </row>
     <row r="44">
@@ -2711,34 +2711,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5.249107683373267</v>
+        <v>5.250190011776325</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4625244123311277</v>
+        <v>0.4638677854799723</v>
       </c>
       <c r="G44" t="n">
         <v>267</v>
       </c>
       <c r="H44" t="n">
-        <v>11.42050317848037</v>
+        <v>11.47955139550944</v>
       </c>
       <c r="I44" t="n">
-        <v>2.949754098141325</v>
+        <v>2.965513595314132</v>
       </c>
       <c r="J44" t="n">
-        <v>1.319097981773981</v>
+        <v>1.326189213695948</v>
       </c>
       <c r="K44" t="n">
-        <v>0.7435998637076598</v>
+        <v>0.7476060275890786</v>
       </c>
       <c r="L44" t="n">
-        <v>0.4763815360249399</v>
+        <v>0.4789506437984323</v>
       </c>
       <c r="M44" t="n">
-        <v>0.3310009637109005</v>
+        <v>0.332787018464283</v>
       </c>
       <c r="N44" t="n">
-        <v>0.2432643914173446</v>
+        <v>0.2445774608369924</v>
       </c>
     </row>
     <row r="45">
@@ -2763,34 +2763,34 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5.398625870456716</v>
+        <v>5.398708255370416</v>
       </c>
       <c r="F45" t="n">
-        <v>0.4858351601709551</v>
+        <v>0.4859180863416717</v>
       </c>
       <c r="G45" t="n">
         <v>157</v>
       </c>
       <c r="H45" t="n">
-        <v>11.53068962022489</v>
+        <v>11.53401087463285</v>
       </c>
       <c r="I45" t="n">
-        <v>3.050714652396962</v>
+        <v>3.051644607622374</v>
       </c>
       <c r="J45" t="n">
-        <v>1.370669790354175</v>
+        <v>1.371092175374755</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7739579215625343</v>
+        <v>0.7741973388531095</v>
       </c>
       <c r="L45" t="n">
-        <v>0.4962136906024847</v>
+        <v>0.4963674630624145</v>
       </c>
       <c r="M45" t="n">
-        <v>0.3449259487567128</v>
+        <v>0.3450329417738448</v>
       </c>
       <c r="N45" t="n">
-        <v>0.2535627775034106</v>
+        <v>0.25364147634829</v>
       </c>
     </row>
     <row r="46">
@@ -2815,34 +2815,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.5857709193048275</v>
+        <v>0.6003347683706112</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1329728165385802</v>
+        <v>0.1160309076050706</v>
       </c>
       <c r="G46" t="n">
         <v>176</v>
       </c>
       <c r="H46" t="n">
-        <v>54.61349711151842</v>
+        <v>43.28518353028489</v>
       </c>
       <c r="I46" t="n">
-        <v>17.79469830194279</v>
+        <v>13.26877288314824</v>
       </c>
       <c r="J46" t="n">
-        <v>8.379428413759882</v>
+        <v>6.155028066446836</v>
       </c>
       <c r="K46" t="n">
-        <v>4.813695571565558</v>
+        <v>3.515998560368023</v>
       </c>
       <c r="L46" t="n">
-        <v>3.111400624590966</v>
+        <v>2.266539612758096</v>
       </c>
       <c r="M46" t="n">
-        <v>2.172429772896977</v>
+        <v>1.580203888564068</v>
       </c>
       <c r="N46" t="n">
-        <v>1.601314785712738</v>
+        <v>1.163738184694266</v>
       </c>
     </row>
     <row r="47">
@@ -2867,34 +2867,34 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.5723669036143473</v>
+        <v>0.5976113680796392</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1242973708214847</v>
+        <v>0.1031309143667258</v>
       </c>
       <c r="G47" t="n">
         <v>163</v>
       </c>
       <c r="H47" t="n">
-        <v>50.16519226519563</v>
+        <v>35.73113017303684</v>
       </c>
       <c r="I47" t="n">
-        <v>16.30479405740749</v>
+        <v>10.69035161624504</v>
       </c>
       <c r="J47" t="n">
-        <v>7.67297701110868</v>
+        <v>4.93093128843655</v>
       </c>
       <c r="K47" t="n">
-        <v>4.406806186043674</v>
+        <v>2.810850061248161</v>
       </c>
       <c r="L47" t="n">
-        <v>2.848075777866976</v>
+        <v>1.810181669458507</v>
       </c>
       <c r="M47" t="n">
-        <v>1.988446575769647</v>
+        <v>1.261350769855019</v>
       </c>
       <c r="N47" t="n">
-        <v>1.465643056785356</v>
+        <v>0.9286131598249416</v>
       </c>
     </row>
     <row r="48">
@@ -2919,34 +2919,34 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.5921420745872161</v>
+        <v>0.6066075046175853</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1235346827580389</v>
+        <v>0.1093643764095957</v>
       </c>
       <c r="G48" t="n">
         <v>141</v>
       </c>
       <c r="H48" t="n">
-        <v>45.36322419221406</v>
+        <v>36.88203632574139</v>
       </c>
       <c r="I48" t="n">
-        <v>14.94755840462344</v>
+        <v>11.47087788349494</v>
       </c>
       <c r="J48" t="n">
-        <v>7.059105516274371</v>
+        <v>5.339494543442252</v>
       </c>
       <c r="K48" t="n">
-        <v>4.059666760784214</v>
+        <v>3.054064134349733</v>
       </c>
       <c r="L48" t="n">
-        <v>2.625399270266892</v>
+        <v>1.969962042803291</v>
       </c>
       <c r="M48" t="n">
-        <v>1.83362616953757</v>
+        <v>1.373894389017066</v>
       </c>
       <c r="N48" t="n">
-        <v>1.351817905560546</v>
+        <v>1.012007962867904</v>
       </c>
     </row>
     <row r="49">
@@ -2971,34 +2971,34 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.5622375150939701</v>
+        <v>0.5951636545536438</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1547965233184512</v>
+        <v>0.1187858980220158</v>
       </c>
       <c r="G49" t="n">
         <v>129</v>
       </c>
       <c r="H49" t="n">
-        <v>61.21062526349498</v>
+        <v>41.51292192569903</v>
       </c>
       <c r="I49" t="n">
-        <v>23.7573042775105</v>
+        <v>13.67994186971238</v>
       </c>
       <c r="J49" t="n">
-        <v>11.76224378091535</v>
+        <v>6.460596857944192</v>
       </c>
       <c r="K49" t="n">
-        <v>6.89115965514632</v>
+        <v>3.71549573278674</v>
       </c>
       <c r="L49" t="n">
-        <v>4.49682119168209</v>
+        <v>2.40283181227217</v>
       </c>
       <c r="M49" t="n">
-        <v>3.156412661494327</v>
+        <v>1.678184526575853</v>
       </c>
       <c r="N49" t="n">
-        <v>2.334149407315228</v>
+        <v>1.237222064775167</v>
       </c>
     </row>
     <row r="50">
@@ -3023,34 +3023,34 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.5597047242657358</v>
+        <v>0.5833627819088471</v>
       </c>
       <c r="F50" t="n">
-        <v>0.144517774413103</v>
+        <v>0.1224112164859319</v>
       </c>
       <c r="G50" t="n">
         <v>390</v>
       </c>
       <c r="H50" t="n">
-        <v>81.13390047149804</v>
+        <v>57.65779340837979</v>
       </c>
       <c r="I50" t="n">
-        <v>24.03331465480338</v>
+        <v>16.21204604776662</v>
       </c>
       <c r="J50" t="n">
-        <v>11.06012188265673</v>
+        <v>7.375688560513118</v>
       </c>
       <c r="K50" t="n">
-        <v>6.299477358947771</v>
+        <v>4.183438626659757</v>
       </c>
       <c r="L50" t="n">
-        <v>4.055246370677687</v>
+        <v>2.687779947943032</v>
       </c>
       <c r="M50" t="n">
-        <v>2.825119246037674</v>
+        <v>1.870452671614839</v>
       </c>
       <c r="N50" t="n">
-        <v>2.079594481710832</v>
+        <v>1.375960921854658</v>
       </c>
     </row>
     <row r="51">
@@ -3075,34 +3075,34 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.5642988598599444</v>
+        <v>0.5866910496822315</v>
       </c>
       <c r="F51" t="n">
-        <v>0.143288113808251</v>
+        <v>0.1213202418942717</v>
       </c>
       <c r="G51" t="n">
         <v>161</v>
       </c>
       <c r="H51" t="n">
-        <v>61.33347403289328</v>
+        <v>46.66361073145382</v>
       </c>
       <c r="I51" t="n">
-        <v>21.46673560951431</v>
+        <v>14.90616006147977</v>
       </c>
       <c r="J51" t="n">
-        <v>10.3040357399814</v>
+        <v>6.984199487147406</v>
       </c>
       <c r="K51" t="n">
-        <v>5.962984241627234</v>
+        <v>4.00461501071625</v>
       </c>
       <c r="L51" t="n">
-        <v>3.867881856763973</v>
+        <v>2.586110724984569</v>
       </c>
       <c r="M51" t="n">
-        <v>2.705892211660671</v>
+        <v>1.80476816796602</v>
       </c>
       <c r="N51" t="n">
-        <v>1.996906532975046</v>
+        <v>1.329907284556564</v>
       </c>
     </row>
     <row r="52">
@@ -3127,34 +3127,34 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.5831466237087514</v>
+        <v>0.6138294384374621</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1241843206563465</v>
+        <v>0.1010747551666274</v>
       </c>
       <c r="G52" t="n">
         <v>194</v>
       </c>
       <c r="H52" t="n">
-        <v>51.27003067748512</v>
+        <v>34.29812570469335</v>
       </c>
       <c r="I52" t="n">
-        <v>15.98609335198499</v>
+        <v>9.885278269081139</v>
       </c>
       <c r="J52" t="n">
-        <v>7.445792743725061</v>
+        <v>4.52145188259185</v>
       </c>
       <c r="K52" t="n">
-        <v>4.259786253078248</v>
+        <v>2.56951695161501</v>
       </c>
       <c r="L52" t="n">
-        <v>2.747985361225477</v>
+        <v>1.652369637931543</v>
       </c>
       <c r="M52" t="n">
-        <v>1.916618591077927</v>
+        <v>1.150473055293824</v>
       </c>
       <c r="N52" t="n">
-        <v>1.411828468025272</v>
+        <v>0.8465774623867136</v>
       </c>
     </row>
     <row r="53">
@@ -3179,34 +3179,34 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.5874882986029161</v>
+        <v>0.6100584740700076</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1097732217665929</v>
+        <v>0.09093247753469162</v>
       </c>
       <c r="G53" t="n">
         <v>183</v>
       </c>
       <c r="H53" t="n">
-        <v>41.48698007750788</v>
+        <v>28.77252144778835</v>
       </c>
       <c r="I53" t="n">
-        <v>12.49650904271023</v>
+        <v>8.154738512579454</v>
       </c>
       <c r="J53" t="n">
-        <v>5.773016000317098</v>
+        <v>3.716330982483244</v>
       </c>
       <c r="K53" t="n">
-        <v>3.292766983569847</v>
+        <v>2.109175508255352</v>
       </c>
       <c r="L53" t="n">
-        <v>2.121110520680108</v>
+        <v>1.355496548473389</v>
       </c>
       <c r="M53" t="n">
-        <v>1.478228746831685</v>
+        <v>0.9434523405539961</v>
       </c>
       <c r="N53" t="n">
-        <v>1.088378088238437</v>
+        <v>0.6940980315525233</v>
       </c>
     </row>
     <row r="54">
@@ -3231,34 +3231,34 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.5980175316049728</v>
+        <v>0.6273929491032257</v>
       </c>
       <c r="F54" t="n">
-        <v>0.110450855330888</v>
+        <v>0.08595202802886791</v>
       </c>
       <c r="G54" t="n">
         <v>217</v>
       </c>
       <c r="H54" t="n">
-        <v>42.21970566347814</v>
+        <v>25.45723035614552</v>
       </c>
       <c r="I54" t="n">
-        <v>12.3582502178779</v>
+        <v>6.978298937716675</v>
       </c>
       <c r="J54" t="n">
-        <v>5.672013306461831</v>
+        <v>3.157883644833043</v>
       </c>
       <c r="K54" t="n">
-        <v>3.22741461929223</v>
+        <v>1.787691245675704</v>
       </c>
       <c r="L54" t="n">
-        <v>2.076664307630397</v>
+        <v>1.147525677318677</v>
       </c>
       <c r="M54" t="n">
-        <v>1.446357328974356</v>
+        <v>0.7981825504536595</v>
       </c>
       <c r="N54" t="n">
-        <v>1.064512282590979</v>
+        <v>0.5869926586108819</v>
       </c>
     </row>
     <row r="55">
@@ -3283,34 +3283,34 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.6135449328483342</v>
+        <v>0.6320385226379699</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1105516056378949</v>
+        <v>0.09433206110191901</v>
       </c>
       <c r="G55" t="n">
         <v>109</v>
       </c>
       <c r="H55" t="n">
-        <v>34.224781742372</v>
+        <v>26.0493539875084</v>
       </c>
       <c r="I55" t="n">
-        <v>11.19176143960589</v>
+        <v>7.934509451618705</v>
       </c>
       <c r="J55" t="n">
-        <v>5.275016967501443</v>
+        <v>3.67507195379148</v>
       </c>
       <c r="K55" t="n">
-        <v>3.031379409319131</v>
+        <v>2.098177907187401</v>
       </c>
       <c r="L55" t="n">
-        <v>1.959703164863733</v>
+        <v>1.352204314533447</v>
       </c>
       <c r="M55" t="n">
-        <v>1.368422488519757</v>
+        <v>0.942603791834864</v>
       </c>
       <c r="N55" t="n">
-        <v>1.008731448293374</v>
+        <v>0.6941177482567561</v>
       </c>
     </row>
     <row r="56">
@@ -3335,34 +3335,34 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.5868990318738765</v>
+        <v>0.6205717047745558</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1289064155052375</v>
+        <v>0.1028023742003257</v>
       </c>
       <c r="G56" t="n">
         <v>89</v>
       </c>
       <c r="H56" t="n">
-        <v>40.44365484459841</v>
+        <v>28.61230876106582</v>
       </c>
       <c r="I56" t="n">
-        <v>15.33856085451729</v>
+        <v>9.425771792943888</v>
       </c>
       <c r="J56" t="n">
-        <v>7.538966472263484</v>
+        <v>4.451125100345214</v>
       </c>
       <c r="K56" t="n">
-        <v>4.403874129315956</v>
+        <v>2.55976692776616</v>
       </c>
       <c r="L56" t="n">
-        <v>2.869596785415578</v>
+        <v>1.655390939303182</v>
       </c>
       <c r="M56" t="n">
-        <v>2.012603562861107</v>
+        <v>1.156147778425559</v>
       </c>
       <c r="N56" t="n">
-        <v>1.487572214218188</v>
+        <v>0.8523522745995823</v>
       </c>
     </row>
     <row r="57">
@@ -3387,34 +3387,34 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.5946302196490982</v>
+        <v>0.6263714654792422</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1292500546907334</v>
+        <v>0.09334324911092787</v>
       </c>
       <c r="G57" t="n">
         <v>91</v>
       </c>
       <c r="H57" t="n">
-        <v>40.38279735715552</v>
+        <v>24.81823881633216</v>
       </c>
       <c r="I57" t="n">
-        <v>15.13201658760516</v>
+        <v>7.800022520098825</v>
       </c>
       <c r="J57" t="n">
-        <v>7.409872538069359</v>
+        <v>3.640011034850018</v>
       </c>
       <c r="K57" t="n">
-        <v>4.322022713299544</v>
+        <v>2.08397589583976</v>
       </c>
       <c r="L57" t="n">
-        <v>2.814212252323261</v>
+        <v>1.344831770233329</v>
       </c>
       <c r="M57" t="n">
-        <v>1.972957388107319</v>
+        <v>0.9381472618904912</v>
       </c>
       <c r="N57" t="n">
-        <v>1.457905678080985</v>
+        <v>0.6911414064561218</v>
       </c>
     </row>
     <row r="58">
@@ -3439,34 +3439,34 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.5851302936958452</v>
+        <v>0.6170181544443787</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1571151077693828</v>
+        <v>0.1106824392401934</v>
       </c>
       <c r="G58" t="n">
         <v>84</v>
       </c>
       <c r="H58" t="n">
-        <v>47.77648369203525</v>
+        <v>31.12479368811568</v>
       </c>
       <c r="I58" t="n">
-        <v>20.82946590719583</v>
+        <v>10.77578980023172</v>
       </c>
       <c r="J58" t="n">
-        <v>10.73662939792174</v>
+        <v>5.156753764506958</v>
       </c>
       <c r="K58" t="n">
-        <v>6.397078301721997</v>
+        <v>2.980730734386889</v>
       </c>
       <c r="L58" t="n">
-        <v>4.209539045479603</v>
+        <v>1.932352625119177</v>
       </c>
       <c r="M58" t="n">
-        <v>2.968749917708534</v>
+        <v>1.351410692707212</v>
       </c>
       <c r="N58" t="n">
-        <v>2.201767299688418</v>
+        <v>0.9971292125326443</v>
       </c>
     </row>
     <row r="59">
@@ -3491,34 +3491,34 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.5907927325673585</v>
+        <v>0.6175478370957609</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1360386631658067</v>
+        <v>0.1079640449895387</v>
       </c>
       <c r="G59" t="n">
         <v>129</v>
       </c>
       <c r="H59" t="n">
-        <v>49.93613228586561</v>
+        <v>34.43092265004525</v>
       </c>
       <c r="I59" t="n">
-        <v>17.59123095559244</v>
+        <v>10.76208187531639</v>
       </c>
       <c r="J59" t="n">
-        <v>8.459183856748593</v>
+        <v>5.015612768303242</v>
       </c>
       <c r="K59" t="n">
-        <v>4.898834022003824</v>
+        <v>2.870103546491773</v>
       </c>
       <c r="L59" t="n">
-        <v>3.178710448193261</v>
+        <v>1.851697610814725</v>
       </c>
       <c r="M59" t="n">
-        <v>2.224184239863228</v>
+        <v>1.291565951838286</v>
       </c>
       <c r="N59" t="n">
-        <v>1.641603795395104</v>
+        <v>0.9514328711058604</v>
       </c>
     </row>
     <row r="60">
@@ -3543,34 +3543,34 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.5829377335537662</v>
+        <v>0.6141984876982431</v>
       </c>
       <c r="F60" t="n">
-        <v>0.131013225236593</v>
+        <v>0.09416803627240024</v>
       </c>
       <c r="G60" t="n">
         <v>108</v>
       </c>
       <c r="H60" t="n">
-        <v>45.16100204218483</v>
+        <v>27.06809462609006</v>
       </c>
       <c r="I60" t="n">
-        <v>16.44893318538649</v>
+        <v>8.333494638809363</v>
       </c>
       <c r="J60" t="n">
-        <v>7.986396781189087</v>
+        <v>3.869659052258999</v>
       </c>
       <c r="K60" t="n">
-        <v>4.642545213162184</v>
+        <v>2.211347643977554</v>
       </c>
       <c r="L60" t="n">
-        <v>3.017931887212559</v>
+        <v>1.425772084612826</v>
       </c>
       <c r="M60" t="n">
-        <v>2.113834773278354</v>
+        <v>0.9941296434387198</v>
       </c>
       <c r="N60" t="n">
-        <v>1.561127959916848</v>
+        <v>0.7321690052053673</v>
       </c>
     </row>
     <row r="61">
@@ -3595,34 +3595,34 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.6102617948771083</v>
+        <v>0.6278095531192219</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1167934249425289</v>
+        <v>0.09831722481253441</v>
       </c>
       <c r="G61" t="n">
         <v>163</v>
       </c>
       <c r="H61" t="n">
-        <v>41.83688806888077</v>
+        <v>30.60884163863667</v>
       </c>
       <c r="I61" t="n">
-        <v>12.95261326604367</v>
+        <v>8.906600203354543</v>
       </c>
       <c r="J61" t="n">
-        <v>6.022594075709351</v>
+        <v>4.082416911420829</v>
       </c>
       <c r="K61" t="n">
-        <v>3.443371047376694</v>
+        <v>2.321800425734313</v>
       </c>
       <c r="L61" t="n">
-        <v>2.220645459656156</v>
+        <v>1.49361136634884</v>
       </c>
       <c r="M61" t="n">
-        <v>1.548561197582714</v>
+        <v>1.040142394581864</v>
       </c>
       <c r="N61" t="n">
-        <v>1.140593305166547</v>
+        <v>0.7654821970348086</v>
       </c>
     </row>
     <row r="62">
@@ -3647,34 +3647,34 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.6348598052287474</v>
+        <v>0.6403084532179886</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1004679970112869</v>
+        <v>0.09018021305454046</v>
       </c>
       <c r="G62" t="n">
         <v>322</v>
       </c>
       <c r="H62" t="n">
-        <v>34.37500085649364</v>
+        <v>27.84437437006588</v>
       </c>
       <c r="I62" t="n">
-        <v>9.341702964274104</v>
+        <v>7.443864766387851</v>
       </c>
       <c r="J62" t="n">
-        <v>4.219881930882718</v>
+        <v>3.351427076874001</v>
       </c>
       <c r="K62" t="n">
-        <v>2.387371665679002</v>
+        <v>1.893801286324789</v>
       </c>
       <c r="L62" t="n">
-        <v>1.532006962945696</v>
+        <v>1.214604497289365</v>
       </c>
       <c r="M62" t="n">
-        <v>1.065442630480203</v>
+        <v>0.8444486357312777</v>
       </c>
       <c r="N62" t="n">
-        <v>0.7834619413930071</v>
+        <v>0.6208432056008758</v>
       </c>
     </row>
     <row r="63">
@@ -3699,34 +3699,34 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.6314702135540345</v>
+        <v>0.641757298137193</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1060948676036334</v>
+        <v>0.0910953150467934</v>
       </c>
       <c r="G63" t="n">
         <v>332</v>
       </c>
       <c r="H63" t="n">
-        <v>38.36419362773056</v>
+        <v>28.32044401063649</v>
       </c>
       <c r="I63" t="n">
-        <v>10.50114137621573</v>
+        <v>7.564034533938313</v>
       </c>
       <c r="J63" t="n">
-        <v>4.750653333002248</v>
+        <v>3.404890023317694</v>
       </c>
       <c r="K63" t="n">
-        <v>2.689076856651539</v>
+        <v>1.923882841892698</v>
       </c>
       <c r="L63" t="n">
-        <v>1.72604209653392</v>
+        <v>1.233859019023873</v>
       </c>
       <c r="M63" t="n">
-        <v>1.200547485920934</v>
+        <v>0.8578206647675166</v>
       </c>
       <c r="N63" t="n">
-        <v>0.8828819027022071</v>
+        <v>0.6306679115363868</v>
       </c>
     </row>
     <row r="64">
@@ -3751,34 +3751,34 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.63556144659021</v>
+        <v>0.6399953807246386</v>
       </c>
       <c r="F64" t="n">
-        <v>0.09583282870288122</v>
+        <v>0.08473722631626719</v>
       </c>
       <c r="G64" t="n">
         <v>263</v>
       </c>
       <c r="H64" t="n">
-        <v>30.84018406864044</v>
+        <v>24.43528479880018</v>
       </c>
       <c r="I64" t="n">
-        <v>8.453509273909111</v>
+        <v>6.566382287002424</v>
       </c>
       <c r="J64" t="n">
-        <v>3.825425907512217</v>
+        <v>2.959441609954228</v>
       </c>
       <c r="K64" t="n">
-        <v>2.165582952232361</v>
+        <v>1.672921741980885</v>
       </c>
       <c r="L64" t="n">
-        <v>1.390093738816555</v>
+        <v>1.073127302238482</v>
       </c>
       <c r="M64" t="n">
-        <v>0.966904446420139</v>
+        <v>0.7461575786842054</v>
       </c>
       <c r="N64" t="n">
-        <v>0.711072344677521</v>
+        <v>0.5486103439076685</v>
       </c>
     </row>
     <row r="65">
@@ -3803,34 +3803,34 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.6261108341379004</v>
+        <v>0.6338811842626941</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1123522439950276</v>
+        <v>0.09753698916333917</v>
       </c>
       <c r="G65" t="n">
         <v>239</v>
       </c>
       <c r="H65" t="n">
-        <v>40.99348004331078</v>
+        <v>31.5759428432005</v>
       </c>
       <c r="I65" t="n">
-        <v>11.76135855907088</v>
+        <v>8.762213141800428</v>
       </c>
       <c r="J65" t="n">
-        <v>5.374197155287845</v>
+        <v>3.975284620778295</v>
       </c>
       <c r="K65" t="n">
-        <v>3.053020612938224</v>
+        <v>2.252488809664976</v>
       </c>
       <c r="L65" t="n">
-        <v>1.9629602421104</v>
+        <v>1.446500627019024</v>
       </c>
       <c r="M65" t="n">
-        <v>1.366596439547408</v>
+        <v>1.006375429570836</v>
       </c>
       <c r="N65" t="n">
-        <v>1.005555479195215</v>
+        <v>0.7402047824100211</v>
       </c>
     </row>
     <row r="66">
@@ -3855,34 +3855,34 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.6380304227111452</v>
+        <v>0.6483191854702102</v>
       </c>
       <c r="F66" t="n">
-        <v>0.10294961464393</v>
+        <v>0.08556328058419327</v>
       </c>
       <c r="G66" t="n">
         <v>267</v>
       </c>
       <c r="H66" t="n">
-        <v>34.79376497359133</v>
+        <v>24.32653590677366</v>
       </c>
       <c r="I66" t="n">
-        <v>9.640675506797153</v>
+        <v>6.527690424743486</v>
       </c>
       <c r="J66" t="n">
-        <v>4.372454649810406</v>
+        <v>2.941143463904146</v>
       </c>
       <c r="K66" t="n">
-        <v>2.477254283136197</v>
+        <v>1.66240480829015</v>
       </c>
       <c r="L66" t="n">
-        <v>1.590756054351977</v>
+        <v>1.066329195213124</v>
       </c>
       <c r="M66" t="n">
-        <v>1.106706425532076</v>
+        <v>0.74141113709948</v>
       </c>
       <c r="N66" t="n">
-        <v>0.8139855630897205</v>
+        <v>0.5451118111580711</v>
       </c>
     </row>
     <row r="67">
@@ -3907,34 +3907,34 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.6216704326949321</v>
+        <v>0.6227783887708739</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1018076818094732</v>
+        <v>0.09982168892465051</v>
       </c>
       <c r="G67" t="n">
         <v>157</v>
       </c>
       <c r="H67" t="n">
-        <v>32.64260263391417</v>
+        <v>31.5457362400934</v>
       </c>
       <c r="I67" t="n">
-        <v>9.668284226037164</v>
+        <v>9.285763219086748</v>
       </c>
       <c r="J67" t="n">
-        <v>4.449231908965684</v>
+        <v>4.267219571339736</v>
       </c>
       <c r="K67" t="n">
-        <v>2.534111720728404</v>
+        <v>2.429196923118565</v>
       </c>
       <c r="L67" t="n">
-        <v>1.631310560861554</v>
+        <v>1.563394345343644</v>
       </c>
       <c r="M67" t="n">
-        <v>1.136462687687641</v>
+        <v>1.089004029659606</v>
       </c>
       <c r="N67" t="n">
-        <v>0.8365587472039356</v>
+        <v>0.8015596643434768</v>
       </c>
     </row>
     <row r="68">

--- a/src/zia/statistics/lobulus_geometry/plotting/n_lobuli.xlsx
+++ b/src/zia/statistics/lobulus_geometry/plotting/n_lobuli.xlsx
@@ -527,34 +527,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.01989806326531</v>
+        <v>136.8124696137078</v>
       </c>
       <c r="F2" t="n">
-        <v>0.369774652088004</v>
+        <v>100.2232837682385</v>
       </c>
       <c r="G2" t="n">
         <v>176</v>
       </c>
       <c r="H2" t="n">
-        <v>39.84035824895898</v>
+        <v>145.0434376798296</v>
       </c>
       <c r="I2" t="n">
-        <v>11.99684496541959</v>
+        <v>94.94430301992067</v>
       </c>
       <c r="J2" t="n">
-        <v>5.541792278821527</v>
+        <v>60.25609460191222</v>
       </c>
       <c r="K2" t="n">
-        <v>3.160800593725033</v>
+        <v>39.86524155325082</v>
       </c>
       <c r="L2" t="n">
-        <v>2.036076170190491</v>
+        <v>27.77891812357078</v>
       </c>
       <c r="M2" t="n">
-        <v>1.418957593435245</v>
+        <v>20.26840560635882</v>
       </c>
       <c r="N2" t="n">
-        <v>1.044734107855603</v>
+        <v>15.3603795406131</v>
       </c>
     </row>
     <row r="3">
@@ -579,34 +579,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.041590451602869</v>
+        <v>134.0553421578758</v>
       </c>
       <c r="F3" t="n">
-        <v>0.333244864647125</v>
+        <v>67.83774547165557</v>
       </c>
       <c r="G3" t="n">
         <v>163</v>
       </c>
       <c r="H3" t="n">
-        <v>32.72232829025062</v>
+        <v>115.2571154093437</v>
       </c>
       <c r="I3" t="n">
-        <v>9.630591470004934</v>
+        <v>61.34928779627715</v>
       </c>
       <c r="J3" t="n">
-        <v>4.425526818391701</v>
+        <v>34.47499493822367</v>
       </c>
       <c r="K3" t="n">
-        <v>2.519283721739452</v>
+        <v>21.36956566372585</v>
       </c>
       <c r="L3" t="n">
-        <v>1.621362946206917</v>
+        <v>14.3539809308815</v>
       </c>
       <c r="M3" t="n">
-        <v>1.129379085413703</v>
+        <v>10.24367501139658</v>
       </c>
       <c r="N3" t="n">
-        <v>0.831275974371255</v>
+        <v>7.653573853623937</v>
       </c>
     </row>
     <row r="4">
@@ -631,34 +631,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.968190091274026</v>
+        <v>130.7469875568564</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4223687353962265</v>
+        <v>98.67630288625182</v>
       </c>
       <c r="G4" t="n">
         <v>141</v>
       </c>
       <c r="H4" t="n">
-        <v>47.11785199065288</v>
+        <v>121.4369923361067</v>
       </c>
       <c r="I4" t="n">
-        <v>15.71908914544487</v>
+        <v>85.74640540008279</v>
       </c>
       <c r="J4" t="n">
-        <v>7.447523823904493</v>
+        <v>57.5542257941926</v>
       </c>
       <c r="K4" t="n">
-        <v>4.288328789134532</v>
+        <v>39.41261008546642</v>
       </c>
       <c r="L4" t="n">
-        <v>2.774912735267333</v>
+        <v>28.04631319406693</v>
       </c>
       <c r="M4" t="n">
-        <v>1.938680804256144</v>
+        <v>20.73695854692259</v>
       </c>
       <c r="N4" t="n">
-        <v>1.429551677456839</v>
+        <v>15.85391629006424</v>
       </c>
     </row>
     <row r="5">
@@ -683,34 +683,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.914816770225321</v>
+        <v>149.3368065516026</v>
       </c>
       <c r="F5" t="n">
-        <v>0.561352785528257</v>
+        <v>139.4520916145777</v>
       </c>
       <c r="G5" t="n">
         <v>129</v>
       </c>
       <c r="H5" t="n">
-        <v>65.2573814638661</v>
+        <v>117.6714973383453</v>
       </c>
       <c r="I5" t="n">
-        <v>26.28816344800786</v>
+        <v>93.1348028687736</v>
       </c>
       <c r="J5" t="n">
-        <v>13.17524292562659</v>
+        <v>69.11514781795263</v>
       </c>
       <c r="K5" t="n">
-        <v>7.757715879594985</v>
+        <v>50.78027658630653</v>
       </c>
       <c r="L5" t="n">
-        <v>5.074804844222284</v>
+        <v>37.86536937821828</v>
       </c>
       <c r="M5" t="n">
-        <v>3.567047456818396</v>
+        <v>28.88618968818956</v>
       </c>
       <c r="N5" t="n">
-        <v>2.640055693845325</v>
+        <v>22.56293443507872</v>
       </c>
     </row>
     <row r="6">
@@ -735,34 +735,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.935111905833545</v>
+        <v>123.778156055186</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4298437062749274</v>
+        <v>95.65279932221863</v>
       </c>
       <c r="G6" t="n">
         <v>390</v>
       </c>
       <c r="H6" t="n">
-        <v>63.47869930963929</v>
+        <v>273.6849263320518</v>
       </c>
       <c r="I6" t="n">
-        <v>18.07633268759622</v>
+        <v>144.4452419957458</v>
       </c>
       <c r="J6" t="n">
-        <v>8.246264997222061</v>
+        <v>80.82957746426202</v>
       </c>
       <c r="K6" t="n">
-        <v>4.681833917038396</v>
+        <v>50.00038225912785</v>
       </c>
       <c r="L6" t="n">
-        <v>3.009379319984145</v>
+        <v>33.54865599091157</v>
       </c>
       <c r="M6" t="n">
-        <v>2.09478578526261</v>
+        <v>23.92657731748539</v>
       </c>
       <c r="N6" t="n">
-        <v>1.541222570895958</v>
+        <v>17.86956533296134</v>
       </c>
     </row>
     <row r="7">
@@ -787,34 +787,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.94964652011477</v>
+        <v>123.5599920700334</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3993830540212935</v>
+        <v>90.09353598159066</v>
       </c>
       <c r="G7" t="n">
         <v>161</v>
       </c>
       <c r="H7" t="n">
-        <v>46.04190813639169</v>
+        <v>134.494971887564</v>
       </c>
       <c r="I7" t="n">
-        <v>14.65333891766191</v>
+        <v>90.03048824800447</v>
       </c>
       <c r="J7" t="n">
-        <v>6.859432875436789</v>
+        <v>58.04652964631948</v>
       </c>
       <c r="K7" t="n">
-        <v>3.931717271534516</v>
+        <v>38.76592064956517</v>
       </c>
       <c r="L7" t="n">
-        <v>2.538617096554519</v>
+        <v>27.16488376379023</v>
       </c>
       <c r="M7" t="n">
-        <v>1.771463345776835</v>
+        <v>19.88993124990759</v>
       </c>
       <c r="N7" t="n">
-        <v>1.305293597292761</v>
+        <v>15.10819547803945</v>
       </c>
     </row>
     <row r="8">
@@ -839,34 +839,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.933255401280296</v>
+        <v>111.0638680213554</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3811828278362828</v>
+        <v>61.00272120498247</v>
       </c>
       <c r="G8" t="n">
         <v>194</v>
       </c>
       <c r="H8" t="n">
-        <v>45.67454937280346</v>
+        <v>136.7659243454409</v>
       </c>
       <c r="I8" t="n">
-        <v>13.86727779867181</v>
+        <v>72.55244121237151</v>
       </c>
       <c r="J8" t="n">
-        <v>6.418107664010547</v>
+        <v>40.70210821850783</v>
       </c>
       <c r="K8" t="n">
-        <v>3.663206167006972</v>
+        <v>25.20884430129455</v>
       </c>
       <c r="L8" t="n">
-        <v>2.360497908629803</v>
+        <v>16.92541961256567</v>
       </c>
       <c r="M8" t="n">
-        <v>1.645351833050426</v>
+        <v>12.07567727311437</v>
       </c>
       <c r="N8" t="n">
-        <v>1.211556056147265</v>
+        <v>9.020898917308561</v>
       </c>
     </row>
     <row r="9">
@@ -891,34 +891,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2.01727573658101</v>
+        <v>123.7841261491172</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3080035363301076</v>
+        <v>57.69859301520846</v>
       </c>
       <c r="G9" t="n">
         <v>183</v>
       </c>
       <c r="H9" t="n">
-        <v>29.95798478568861</v>
+        <v>118.2076238327937</v>
       </c>
       <c r="I9" t="n">
-        <v>8.537749329715794</v>
+        <v>57.32195601596575</v>
       </c>
       <c r="J9" t="n">
-        <v>3.895523699840926</v>
+        <v>30.84384994045986</v>
       </c>
       <c r="K9" t="n">
-        <v>2.21183101592764</v>
+        <v>18.73085469693995</v>
       </c>
       <c r="L9" t="n">
-        <v>1.421758123073218</v>
+        <v>12.44636549167346</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9896814476429612</v>
+        <v>8.826744364835383</v>
       </c>
       <c r="N9" t="n">
-        <v>0.728157661508088</v>
+        <v>6.569016534103864</v>
       </c>
     </row>
     <row r="10">
@@ -943,34 +943,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2.043756139621714</v>
+        <v>130.3527616041249</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3000608053925014</v>
+        <v>58.91761078079184</v>
       </c>
       <c r="G10" t="n">
         <v>217</v>
       </c>
       <c r="H10" t="n">
-        <v>28.73678983966149</v>
+        <v>128.3071419838715</v>
       </c>
       <c r="I10" t="n">
-        <v>7.976421216241715</v>
+        <v>57.63586154767313</v>
       </c>
       <c r="J10" t="n">
-        <v>3.618979069562612</v>
+        <v>30.0500396564738</v>
       </c>
       <c r="K10" t="n">
-        <v>2.050637854602881</v>
+        <v>17.99326489474327</v>
       </c>
       <c r="L10" t="n">
-        <v>1.31688825425277</v>
+        <v>11.870016378921</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9162046479588524</v>
+        <v>8.383183907948002</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6738848041871308</v>
+        <v>6.22285413213354</v>
       </c>
     </row>
     <row r="11">
@@ -995,34 +995,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.95455357919846</v>
+        <v>115.9254775383784</v>
       </c>
       <c r="F11" t="n">
-        <v>0.38004566116903</v>
+        <v>64.76958110795813</v>
       </c>
       <c r="G11" t="n">
         <v>109</v>
       </c>
       <c r="H11" t="n">
-        <v>37.89729182769724</v>
+        <v>88.8177439399248</v>
       </c>
       <c r="I11" t="n">
-        <v>12.81632231706991</v>
+        <v>57.10008036933448</v>
       </c>
       <c r="J11" t="n">
-        <v>6.094235431251386</v>
+        <v>35.79532627643795</v>
       </c>
       <c r="K11" t="n">
-        <v>3.513961772020281</v>
+        <v>23.51308813544086</v>
       </c>
       <c r="L11" t="n">
-        <v>2.275342580557925</v>
+        <v>16.31539588271678</v>
       </c>
       <c r="M11" t="n">
-        <v>1.590242185360756</v>
+        <v>11.87317129753618</v>
       </c>
       <c r="N11" t="n">
-        <v>1.17288101077669</v>
+        <v>8.982741305499612</v>
       </c>
     </row>
     <row r="12">
@@ -1047,34 +1047,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1.949467041766575</v>
+        <v>106.8790586054739</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3149086628899231</v>
+        <v>56.58842931050623</v>
       </c>
       <c r="G12" t="n">
         <v>89</v>
       </c>
       <c r="H12" t="n">
-        <v>27.64293382206832</v>
+        <v>73.7604718850985</v>
       </c>
       <c r="I12" t="n">
-        <v>9.009449269545012</v>
+        <v>48.72885229388033</v>
       </c>
       <c r="J12" t="n">
-        <v>4.242810049255215</v>
+        <v>31.12459461233131</v>
       </c>
       <c r="K12" t="n">
-        <v>2.437416657782628</v>
+        <v>20.67011431535802</v>
       </c>
       <c r="L12" t="n">
-        <v>1.57547965114324</v>
+        <v>14.435846352433</v>
       </c>
       <c r="M12" t="n">
-        <v>1.100033115315262</v>
+        <v>10.54764814026851</v>
       </c>
       <c r="N12" t="n">
-        <v>0.8108464928655728</v>
+        <v>8.00085704317266</v>
       </c>
     </row>
     <row r="13">
@@ -1099,34 +1099,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1.850996109965676</v>
+        <v>90.78325004842276</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3252596706564639</v>
+        <v>77.87337601927958</v>
       </c>
       <c r="G13" t="n">
         <v>91</v>
       </c>
       <c r="H13" t="n">
-        <v>31.18710151633898</v>
+        <v>84.22161445069811</v>
       </c>
       <c r="I13" t="n">
-        <v>10.49415740323018</v>
+        <v>68.83869521333</v>
       </c>
       <c r="J13" t="n">
-        <v>4.983336877542166</v>
+        <v>52.7736747382382</v>
       </c>
       <c r="K13" t="n">
-        <v>2.871933789596091</v>
+        <v>39.77753086637612</v>
       </c>
       <c r="L13" t="n">
-        <v>1.859160470163874</v>
+        <v>30.21179854183928</v>
       </c>
       <c r="M13" t="n">
-        <v>1.29919401137425</v>
+        <v>23.3490291501308</v>
       </c>
       <c r="N13" t="n">
-        <v>0.9581390653120347</v>
+        <v>18.40743774432797</v>
       </c>
     </row>
     <row r="14">
@@ -1151,34 +1151,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1.858491062097516</v>
+        <v>93.24795142274367</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3422495795814258</v>
+        <v>70.86750118408092</v>
       </c>
       <c r="G14" t="n">
         <v>84</v>
       </c>
       <c r="H14" t="n">
-        <v>32.16030590679565</v>
+        <v>76.73730120529063</v>
       </c>
       <c r="I14" t="n">
-        <v>11.27870761051581</v>
+        <v>60.93250111844841</v>
       </c>
       <c r="J14" t="n">
-        <v>5.416824976979878</v>
+        <v>45.36144377427278</v>
       </c>
       <c r="K14" t="n">
-        <v>3.135422566593419</v>
+        <v>33.40892091217918</v>
       </c>
       <c r="L14" t="n">
-        <v>2.034002401318065</v>
+        <v>24.95475896348077</v>
       </c>
       <c r="M14" t="n">
-        <v>1.423030410969445</v>
+        <v>19.05984309409874</v>
       </c>
       <c r="N14" t="n">
-        <v>1.05021191647424</v>
+        <v>14.90011817415775</v>
       </c>
     </row>
     <row r="15">
@@ -1203,34 +1203,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1.88724066108023</v>
+        <v>97.05747337120616</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3244188949039107</v>
+        <v>70.71012988874543</v>
       </c>
       <c r="G15" t="n">
         <v>129</v>
       </c>
       <c r="H15" t="n">
-        <v>33.58565418762723</v>
+        <v>111.3830271151827</v>
       </c>
       <c r="I15" t="n">
-        <v>10.43376769649029</v>
+        <v>79.01203141657498</v>
       </c>
       <c r="J15" t="n">
-        <v>4.855404788607021</v>
+        <v>53.22899518541438</v>
       </c>
       <c r="K15" t="n">
-        <v>2.776892204221663</v>
+        <v>36.53717144992376</v>
       </c>
       <c r="L15" t="n">
-        <v>1.791091010696248</v>
+        <v>26.03881684026546</v>
       </c>
       <c r="M15" t="n">
-        <v>1.249112516297929</v>
+        <v>19.27109058768978</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9200789738643661</v>
+        <v>14.74265729872196</v>
       </c>
     </row>
     <row r="16">
@@ -1255,34 +1255,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1.964282928487492</v>
+        <v>103.7985222219378</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2058158581173092</v>
+        <v>58.18062621220578</v>
       </c>
       <c r="G16" t="n">
         <v>108</v>
       </c>
       <c r="H16" t="n">
-        <v>14.59104729482512</v>
+        <v>88.2565097978097</v>
       </c>
       <c r="I16" t="n">
-        <v>4.059052265189217</v>
+        <v>56.99740617598263</v>
       </c>
       <c r="J16" t="n">
-        <v>1.842494323402015</v>
+        <v>35.84048711563774</v>
       </c>
       <c r="K16" t="n">
-        <v>1.044196740926191</v>
+        <v>23.58443044222135</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6706201119771825</v>
+        <v>16.38189430555929</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4665936935709176</v>
+        <v>11.9292099396049</v>
       </c>
       <c r="N16" t="n">
-        <v>0.3431969040528762</v>
+        <v>9.028905608864926</v>
       </c>
     </row>
     <row r="17">
@@ -1307,34 +1307,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1.876635204825408</v>
+        <v>88.92527772528375</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3001432810207037</v>
+        <v>42.26247701556294</v>
       </c>
       <c r="G17" t="n">
         <v>163</v>
       </c>
       <c r="H17" t="n">
-        <v>31.66987917251652</v>
+        <v>110.9122538078823</v>
       </c>
       <c r="I17" t="n">
-        <v>9.268006509327783</v>
+        <v>56.62630452319116</v>
       </c>
       <c r="J17" t="n">
-        <v>4.253474006812326</v>
+        <v>31.18619276923593</v>
       </c>
       <c r="K17" t="n">
-        <v>2.420209530791995</v>
+        <v>19.14474993329736</v>
       </c>
       <c r="L17" t="n">
-        <v>1.557258030145687</v>
+        <v>12.79358982261799</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08459533325794</v>
+        <v>9.102744216181089</v>
       </c>
       <c r="N17" t="n">
-        <v>0.7982547388626983</v>
+        <v>6.788306230011059</v>
       </c>
     </row>
     <row r="18">
@@ -1359,34 +1359,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1.808581694180754</v>
+        <v>75.62450612731004</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2874530187777741</v>
+        <v>40.55892210686133</v>
       </c>
       <c r="G18" t="n">
         <v>322</v>
       </c>
       <c r="H18" t="n">
-        <v>34.64157884380415</v>
+        <v>186.2875190065696</v>
       </c>
       <c r="I18" t="n">
-        <v>9.420506222745576</v>
+        <v>82.267865541143</v>
       </c>
       <c r="J18" t="n">
-        <v>4.25606748307101</v>
+        <v>42.6117692685543</v>
       </c>
       <c r="K18" t="n">
-        <v>2.407962484814499</v>
+        <v>25.4421285151782</v>
       </c>
       <c r="L18" t="n">
-        <v>1.545256023424703</v>
+        <v>16.75968505075977</v>
       </c>
       <c r="M18" t="n">
-        <v>1.074670293025128</v>
+        <v>11.82676028394088</v>
       </c>
       <c r="N18" t="n">
-        <v>0.7902534187538051</v>
+        <v>8.774551523547204</v>
       </c>
     </row>
     <row r="19">
@@ -1411,34 +1411,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1.7986534195647</v>
+        <v>69.8666394794502</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2258057772646862</v>
+        <v>28.49510411110881</v>
       </c>
       <c r="G19" t="n">
         <v>332</v>
       </c>
       <c r="H19" t="n">
-        <v>22.57193906104408</v>
+        <v>144.4188779828048</v>
       </c>
       <c r="I19" t="n">
-        <v>5.946185686086303</v>
+        <v>53.58750822805971</v>
       </c>
       <c r="J19" t="n">
-        <v>2.669309112890448</v>
+        <v>26.16271207121347</v>
       </c>
       <c r="K19" t="n">
-        <v>1.506786555516454</v>
+        <v>15.24201639165336</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9659215809361376</v>
+        <v>9.918823727350167</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6713757179563035</v>
+        <v>6.951530961316267</v>
       </c>
       <c r="N19" t="n">
-        <v>0.4935204063213856</v>
+        <v>5.135776844253389</v>
       </c>
     </row>
     <row r="20">
@@ -1463,34 +1463,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.842164492405197</v>
+        <v>77.94671920304228</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2153864253389289</v>
+        <v>41.98586180009749</v>
       </c>
       <c r="G20" t="n">
         <v>263</v>
       </c>
       <c r="H20" t="n">
-        <v>19.4526858430905</v>
+        <v>165.419949971377</v>
       </c>
       <c r="I20" t="n">
-        <v>5.148792696906024</v>
+        <v>78.283792948467</v>
       </c>
       <c r="J20" t="n">
-        <v>2.313514554865452</v>
+        <v>41.6862425342356</v>
       </c>
       <c r="K20" t="n">
-        <v>1.306379574258819</v>
+        <v>25.19570738105864</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8375806894633746</v>
+        <v>16.70125254882918</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5822198193997635</v>
+        <v>11.82759049896415</v>
       </c>
       <c r="N20" t="n">
-        <v>0.4280047145833873</v>
+        <v>8.794589217232637</v>
       </c>
     </row>
     <row r="21">
@@ -1515,34 +1515,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1.832678765806504</v>
+        <v>76.69057276759391</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2314990101819192</v>
+        <v>38.80989351824733</v>
       </c>
       <c r="G21" t="n">
         <v>239</v>
       </c>
       <c r="H21" t="n">
-        <v>22.23740731714832</v>
+        <v>148.6937845237341</v>
       </c>
       <c r="I21" t="n">
-        <v>5.976400980637637</v>
+        <v>69.69310643974407</v>
       </c>
       <c r="J21" t="n">
-        <v>2.693598069837134</v>
+        <v>36.96273827022352</v>
       </c>
       <c r="K21" t="n">
-        <v>1.522656753468842</v>
+        <v>22.30043011249524</v>
       </c>
       <c r="L21" t="n">
-        <v>0.976740517183051</v>
+        <v>14.76835320621738</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6791400941752441</v>
+        <v>10.45316678976892</v>
       </c>
       <c r="N21" t="n">
-        <v>0.4993365146530976</v>
+        <v>7.770039000636009</v>
       </c>
     </row>
     <row r="22">
@@ -1567,34 +1567,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1.806631902987686</v>
+        <v>72.5573995460398</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2452887686647225</v>
+        <v>33.89456175245095</v>
       </c>
       <c r="G22" t="n">
         <v>267</v>
       </c>
       <c r="H22" t="n">
-        <v>25.60928267899016</v>
+        <v>148.6440600318049</v>
       </c>
       <c r="I22" t="n">
-        <v>6.89857807420059</v>
+        <v>63.80005966966651</v>
       </c>
       <c r="J22" t="n">
-        <v>3.110685778942123</v>
+        <v>32.69600454990513</v>
       </c>
       <c r="K22" t="n">
-        <v>1.758725144162693</v>
+        <v>19.43260256720477</v>
       </c>
       <c r="L22" t="n">
-        <v>1.128259550836525</v>
+        <v>12.77149492628047</v>
       </c>
       <c r="M22" t="n">
-        <v>0.7845265446389321</v>
+        <v>9.000644736513115</v>
       </c>
       <c r="N22" t="n">
-        <v>0.5768365216992195</v>
+        <v>6.672393423764289</v>
       </c>
     </row>
     <row r="23">
@@ -1619,34 +1619,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.891182204064268</v>
+        <v>92.45550129552358</v>
       </c>
       <c r="F23" t="n">
-        <v>0.266500056982511</v>
+        <v>56.10060952511547</v>
       </c>
       <c r="G23" t="n">
         <v>157</v>
       </c>
       <c r="H23" t="n">
-        <v>25.54852404925201</v>
+        <v>122.8965961128969</v>
       </c>
       <c r="I23" t="n">
-        <v>7.275026866760731</v>
+        <v>74.40804381019187</v>
       </c>
       <c r="J23" t="n">
-        <v>3.318781308017984</v>
+        <v>44.88958398584666</v>
       </c>
       <c r="K23" t="n">
-        <v>1.884240310061839</v>
+        <v>28.86057145522868</v>
       </c>
       <c r="L23" t="n">
-        <v>1.211146619212018</v>
+        <v>19.77973110355371</v>
       </c>
       <c r="M23" t="n">
-        <v>0.8430612631266879</v>
+        <v>14.28586718101292</v>
       </c>
       <c r="N23" t="n">
-        <v>0.6202756211783238</v>
+        <v>10.75538427041037</v>
       </c>
     </row>
     <row r="24">
@@ -1671,34 +1671,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5.637085069515622</v>
+        <v>905036.0713997702</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6949056986685912</v>
+        <v>1106445.625897836</v>
       </c>
       <c r="G24" t="n">
         <v>176</v>
       </c>
       <c r="H24" t="n">
-        <v>20.61616456103634</v>
+        <v>163.4727022245856</v>
       </c>
       <c r="I24" t="n">
-        <v>5.650449974887732</v>
+        <v>134.7080276490454</v>
       </c>
       <c r="J24" t="n">
-        <v>2.556916300859129</v>
+        <v>104.1610459160155</v>
       </c>
       <c r="K24" t="n">
-        <v>1.447465467650935</v>
+        <v>79.06141013001893</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9291287939780871</v>
+        <v>60.3606103829</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6462708097383164</v>
+        <v>46.82389406109737</v>
       </c>
       <c r="N24" t="n">
-        <v>0.4752742203873285</v>
+        <v>37.01378438248468</v>
       </c>
     </row>
     <row r="25">
@@ -1723,34 +1723,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5.681806326782803</v>
+        <v>833734.7549368339</v>
       </c>
       <c r="F25" t="n">
-        <v>0.642495381380062</v>
+        <v>681768.4821536446</v>
       </c>
       <c r="G25" t="n">
         <v>163</v>
       </c>
       <c r="H25" t="n">
-        <v>17.53515993955341</v>
+        <v>140.68285589458</v>
       </c>
       <c r="I25" t="n">
-        <v>4.76853053191491</v>
+        <v>99.72238607010867</v>
       </c>
       <c r="J25" t="n">
-        <v>2.154361000578492</v>
+        <v>67.14146709928681</v>
       </c>
       <c r="K25" t="n">
-        <v>1.218876105009522</v>
+        <v>46.06926284690153</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7821863499704604</v>
+        <v>32.82411880140841</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5439825885205543</v>
+        <v>24.28906307555838</v>
       </c>
       <c r="N25" t="n">
-        <v>0.400014854632217</v>
+        <v>18.57954928064166</v>
       </c>
     </row>
     <row r="26">
@@ -1775,34 +1775,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5.540188149212362</v>
+        <v>907595.1350981245</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8011552122196162</v>
+        <v>1249543.252477997</v>
       </c>
       <c r="G26" t="n">
         <v>141</v>
       </c>
       <c r="H26" t="n">
-        <v>26.16945825361241</v>
+        <v>134.4894607404521</v>
       </c>
       <c r="I26" t="n">
-        <v>7.600323923078252</v>
+        <v>118.1263493559988</v>
       </c>
       <c r="J26" t="n">
-        <v>3.482200107588161</v>
+        <v>98.21105383476174</v>
       </c>
       <c r="K26" t="n">
-        <v>1.98013229376511</v>
+        <v>79.45682483399176</v>
       </c>
       <c r="L26" t="n">
-        <v>1.273724180477191</v>
+        <v>63.79420106726909</v>
       </c>
       <c r="M26" t="n">
-        <v>0.8869789535322447</v>
+        <v>51.40855002061325</v>
       </c>
       <c r="N26" t="n">
-        <v>0.6527474048140439</v>
+        <v>41.81426220533939</v>
       </c>
     </row>
     <row r="27">
@@ -1827,34 +1827,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5.425841460475396</v>
+        <v>1373608.587780567</v>
       </c>
       <c r="F27" t="n">
-        <v>1.070641499672923</v>
+        <v>2058582.475295547</v>
       </c>
       <c r="G27" t="n">
         <v>129</v>
       </c>
       <c r="H27" t="n">
-        <v>40.87356846723716</v>
+        <v>124.3520651648733</v>
       </c>
       <c r="I27" t="n">
-        <v>13.40357869536058</v>
+        <v>112.2218375380159</v>
       </c>
       <c r="J27" t="n">
-        <v>6.322083849055537</v>
+        <v>96.52834646132254</v>
       </c>
       <c r="K27" t="n">
-        <v>3.634091356912886</v>
+        <v>80.7241108691403</v>
       </c>
       <c r="L27" t="n">
-        <v>2.34964777447732</v>
+        <v>66.68629111692189</v>
       </c>
       <c r="M27" t="n">
-        <v>1.640831873221496</v>
+        <v>54.99705787828966</v>
       </c>
       <c r="N27" t="n">
-        <v>1.209591011001107</v>
+        <v>45.55914988573768</v>
       </c>
     </row>
     <row r="28">
@@ -1879,34 +1879,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5.455041030763025</v>
+        <v>761873.5757921789</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8058470285001765</v>
+        <v>923075.3645257412</v>
       </c>
       <c r="G28" t="n">
         <v>390</v>
       </c>
       <c r="H28" t="n">
-        <v>30.8786252286505</v>
+        <v>332.5104089464105</v>
       </c>
       <c r="I28" t="n">
-        <v>8.207004409899486</v>
+        <v>230.5533492292815</v>
       </c>
       <c r="J28" t="n">
-        <v>3.690705141395602</v>
+        <v>152.5785469934736</v>
       </c>
       <c r="K28" t="n">
-        <v>2.084652549917724</v>
+        <v>103.5490834666747</v>
       </c>
       <c r="L28" t="n">
-        <v>1.336749932706561</v>
+        <v>73.27534731583182</v>
       </c>
       <c r="M28" t="n">
-        <v>0.9292718011455191</v>
+        <v>53.98490193439859</v>
       </c>
       <c r="N28" t="n">
-        <v>0.6831621690996698</v>
+        <v>41.17448618224365</v>
       </c>
     </row>
     <row r="29">
@@ -1931,34 +1931,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5.486547874674134</v>
+        <v>764575.1373769741</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7512257146246594</v>
+        <v>897943.0050555361</v>
       </c>
       <c r="G29" t="n">
         <v>161</v>
       </c>
       <c r="H29" t="n">
-        <v>24.43575732383811</v>
+        <v>149.6335335759596</v>
       </c>
       <c r="I29" t="n">
-        <v>6.893651760254365</v>
+        <v>123.4806411275916</v>
       </c>
       <c r="J29" t="n">
-        <v>3.13850273154111</v>
+        <v>95.6251075344437</v>
       </c>
       <c r="K29" t="n">
-        <v>1.780593650721642</v>
+        <v>72.6733550234737</v>
       </c>
       <c r="L29" t="n">
-        <v>1.144135255653416</v>
+        <v>55.53542139035642</v>
       </c>
       <c r="M29" t="n">
-        <v>0.7962673943394931</v>
+        <v>43.10999291696956</v>
       </c>
       <c r="N29" t="n">
-        <v>0.5857814070023557</v>
+        <v>34.09471640542899</v>
       </c>
     </row>
     <row r="30">
@@ -1983,34 +1983,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5.47824590498048</v>
+        <v>613730.4916839828</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7297962409385975</v>
+        <v>536178.9866037796</v>
       </c>
       <c r="G30" t="n">
         <v>194</v>
       </c>
       <c r="H30" t="n">
-        <v>23.90950802852009</v>
+        <v>166.4648219693596</v>
       </c>
       <c r="I30" t="n">
-        <v>6.586159905894599</v>
+        <v>116.7517329979515</v>
       </c>
       <c r="J30" t="n">
-        <v>2.983452207050604</v>
+        <v>77.9522652286429</v>
       </c>
       <c r="K30" t="n">
-        <v>1.689559469396182</v>
+        <v>53.20049980193572</v>
       </c>
       <c r="L30" t="n">
-        <v>1.084718941740745</v>
+        <v>37.77784620199818</v>
       </c>
       <c r="M30" t="n">
-        <v>0.7545661915938747</v>
+        <v>27.89436321255796</v>
       </c>
       <c r="N30" t="n">
-        <v>0.5549478187775668</v>
+        <v>21.3066038920456</v>
       </c>
     </row>
     <row r="31">
@@ -2035,34 +2035,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5.644175934709512</v>
+        <v>719448.1674289935</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5875482287226086</v>
+        <v>529995.7012660711</v>
       </c>
       <c r="G31" t="n">
         <v>183</v>
       </c>
       <c r="H31" t="n">
-        <v>15.26287014006305</v>
+        <v>150.0677966150314</v>
       </c>
       <c r="I31" t="n">
-        <v>4.070327712487904</v>
+        <v>97.45470949935998</v>
       </c>
       <c r="J31" t="n">
-        <v>1.831668082773594</v>
+        <v>61.51178771472805</v>
       </c>
       <c r="K31" t="n">
-        <v>1.034844869725958</v>
+        <v>40.56587051792699</v>
       </c>
       <c r="L31" t="n">
-        <v>0.6636517525815511</v>
+        <v>28.21365512627294</v>
       </c>
       <c r="M31" t="n">
-        <v>0.4613805288437937</v>
+        <v>20.56143245423881</v>
       </c>
       <c r="N31" t="n">
-        <v>0.3392003378643242</v>
+        <v>15.57050191970942</v>
       </c>
     </row>
     <row r="32">
@@ -2087,34 +2087,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5.710436697378626</v>
+        <v>819218.5487886588</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5800946222405967</v>
+        <v>589013.0890939998</v>
       </c>
       <c r="G32" t="n">
         <v>217</v>
       </c>
       <c r="H32" t="n">
-        <v>14.77749818909112</v>
+        <v>170.4403522999061</v>
       </c>
       <c r="I32" t="n">
-        <v>3.893217937920317</v>
+        <v>103.6942526732815</v>
       </c>
       <c r="J32" t="n">
-        <v>1.747739283027284</v>
+        <v>62.74298243172654</v>
       </c>
       <c r="K32" t="n">
-        <v>0.9865797260234304</v>
+        <v>40.40394359150383</v>
       </c>
       <c r="L32" t="n">
-        <v>0.6324461632840233</v>
+        <v>27.71633853616704</v>
       </c>
       <c r="M32" t="n">
-        <v>0.4395901976816665</v>
+        <v>20.02913647692035</v>
       </c>
       <c r="N32" t="n">
-        <v>0.3231378963191532</v>
+        <v>15.08467442814904</v>
       </c>
     </row>
     <row r="33">
@@ -2139,34 +2139,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5.53365462194102</v>
+        <v>674868.2817034717</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7246658926186493</v>
+        <v>589160.7942336762</v>
       </c>
       <c r="G33" t="n">
         <v>109</v>
       </c>
       <c r="H33" t="n">
-        <v>21.22186425378384</v>
+        <v>99.71884628752788</v>
       </c>
       <c r="I33" t="n">
-        <v>6.212649593191637</v>
+        <v>79.42910939986882</v>
       </c>
       <c r="J33" t="n">
-        <v>2.851469023418187</v>
+        <v>59.31459719174892</v>
       </c>
       <c r="K33" t="n">
-        <v>1.622521270627559</v>
+        <v>43.78967137385308</v>
       </c>
       <c r="L33" t="n">
-        <v>1.044008229728243</v>
+        <v>32.76391849133899</v>
       </c>
       <c r="M33" t="n">
-        <v>0.7271337655449097</v>
+        <v>25.05380952997243</v>
       </c>
       <c r="N33" t="n">
-        <v>0.5351678896001036</v>
+        <v>19.60224498290829</v>
       </c>
     </row>
     <row r="34">
@@ -2191,34 +2191,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5.515070328431229</v>
+        <v>544852.5951810502</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6054412021314753</v>
+        <v>489037.1020597835</v>
       </c>
       <c r="G34" t="n">
         <v>89</v>
       </c>
       <c r="H34" t="n">
-        <v>15.32919586064948</v>
+        <v>83.03060260610201</v>
       </c>
       <c r="I34" t="n">
-        <v>4.400786474826846</v>
+        <v>69.12214565731318</v>
       </c>
       <c r="J34" t="n">
-        <v>2.011152623418375</v>
+        <v>54.03615188696938</v>
       </c>
       <c r="K34" t="n">
-        <v>1.142569113375514</v>
+        <v>41.38951417278118</v>
       </c>
       <c r="L34" t="n">
-        <v>0.7346394627790901</v>
+        <v>31.81584195813326</v>
       </c>
       <c r="M34" t="n">
-        <v>0.5114562734910714</v>
+        <v>24.80364749444442</v>
       </c>
       <c r="N34" t="n">
-        <v>0.3763375700551271</v>
+        <v>19.67806161919119</v>
       </c>
     </row>
     <row r="35">
@@ -2243,34 +2243,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5.324051834839823</v>
+        <v>467756.8769327305</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6189843483771933</v>
+        <v>954072.5193707218</v>
       </c>
       <c r="G35" t="n">
         <v>91</v>
       </c>
       <c r="H35" t="n">
-        <v>16.91068202975395</v>
+        <v>89.72282680527388</v>
       </c>
       <c r="I35" t="n">
-        <v>4.912318816836569</v>
+        <v>86.0977159817877</v>
       </c>
       <c r="J35" t="n">
-        <v>2.25075227483147</v>
+        <v>80.66575909152216</v>
       </c>
       <c r="K35" t="n">
-        <v>1.279897832273186</v>
+        <v>74.11905663686824</v>
       </c>
       <c r="L35" t="n">
-        <v>0.8233032705190884</v>
+        <v>67.11576237154718</v>
       </c>
       <c r="M35" t="n">
-        <v>0.5733233055276218</v>
+        <v>60.16737916454919</v>
       </c>
       <c r="N35" t="n">
-        <v>0.4219223641908881</v>
+        <v>53.60831259378526</v>
       </c>
     </row>
     <row r="36">
@@ -2295,34 +2295,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5.333902541733471</v>
+        <v>468566.9371188356</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6409332494744789</v>
+        <v>749159.8665786226</v>
       </c>
       <c r="G36" t="n">
         <v>84</v>
       </c>
       <c r="H36" t="n">
-        <v>17.55147578744817</v>
+        <v>82.24130146936277</v>
       </c>
       <c r="I36" t="n">
-        <v>5.203271582545684</v>
+        <v>77.38095262369821</v>
       </c>
       <c r="J36" t="n">
-        <v>2.394984148872662</v>
+        <v>70.44252399797131</v>
       </c>
       <c r="K36" t="n">
-        <v>1.36419538753837</v>
+        <v>62.58597037383312</v>
       </c>
       <c r="L36" t="n">
-        <v>0.878219604310756</v>
+        <v>54.73684286440533</v>
       </c>
       <c r="M36" t="n">
-        <v>0.6118292639044839</v>
+        <v>47.461753255826</v>
       </c>
       <c r="N36" t="n">
-        <v>0.4503775262395084</v>
+        <v>41.0187071686795</v>
       </c>
     </row>
     <row r="37">
@@ -2347,34 +2347,34 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5.388663590755486</v>
+        <v>485789.3628239134</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6051070100552213</v>
+        <v>749685.9636783699</v>
       </c>
       <c r="G37" t="n">
         <v>129</v>
       </c>
       <c r="H37" t="n">
-        <v>16.84608833938601</v>
+        <v>124.607624742249</v>
       </c>
       <c r="I37" t="n">
-        <v>4.668794945873633</v>
+        <v>113.0588588306805</v>
       </c>
       <c r="J37" t="n">
-        <v>2.117598060009136</v>
+        <v>97.93152992167934</v>
       </c>
       <c r="K37" t="n">
-        <v>1.199765355228436</v>
+        <v>82.48111307776695</v>
       </c>
       <c r="L37" t="n">
-        <v>0.7704293653775404</v>
+        <v>68.57174679124661</v>
       </c>
       <c r="M37" t="n">
-        <v>0.535998523334734</v>
+        <v>56.85355431507366</v>
       </c>
       <c r="N37" t="n">
-        <v>0.3942294139146937</v>
+        <v>47.30069094482516</v>
       </c>
     </row>
     <row r="38">
@@ -2399,34 +2399,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5.541943194508104</v>
+        <v>510551.8499273103</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3722691767716104</v>
+        <v>547947.117285297</v>
       </c>
       <c r="G38" t="n">
         <v>108</v>
       </c>
       <c r="H38" t="n">
-        <v>6.515364155283917</v>
+        <v>101.7890895624546</v>
       </c>
       <c r="I38" t="n">
-        <v>1.706031427796341</v>
+        <v>86.81184997585311</v>
       </c>
       <c r="J38" t="n">
-        <v>0.7649492947485368</v>
+        <v>69.71533422807529</v>
       </c>
       <c r="K38" t="n">
-        <v>0.4316214665803185</v>
+        <v>54.64814997182332</v>
       </c>
       <c r="L38" t="n">
-        <v>0.2766357450313338</v>
+        <v>42.76488966105251</v>
       </c>
       <c r="M38" t="n">
-        <v>0.1922586299607299</v>
+        <v>33.78560038105807</v>
       </c>
       <c r="N38" t="n">
-        <v>0.1413179815016966</v>
+        <v>27.06865333300525</v>
       </c>
     </row>
     <row r="39">
@@ -2451,34 +2451,34 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5.374496434348087</v>
+        <v>392561.7929210896</v>
       </c>
       <c r="F39" t="n">
-        <v>0.5789011602909603</v>
+        <v>346075.1608392606</v>
       </c>
       <c r="G39" t="n">
         <v>163</v>
       </c>
       <c r="H39" t="n">
-        <v>16.07041404516293</v>
+        <v>143.4244544131177</v>
       </c>
       <c r="I39" t="n">
-        <v>4.338400566824338</v>
+        <v>105.4369759578091</v>
       </c>
       <c r="J39" t="n">
-        <v>1.957117220077781</v>
+        <v>73.14726784674497</v>
       </c>
       <c r="K39" t="n">
-        <v>1.106691887309787</v>
+        <v>51.19686194206152</v>
       </c>
       <c r="L39" t="n">
-        <v>0.710018254006843</v>
+        <v>36.94327169878623</v>
       </c>
       <c r="M39" t="n">
-        <v>0.4937253713983702</v>
+        <v>27.56393187460606</v>
       </c>
       <c r="N39" t="n">
-        <v>0.363028740937142</v>
+        <v>21.20227718165386</v>
       </c>
     </row>
     <row r="40">
@@ -2503,34 +2503,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5.247641536265799</v>
+        <v>283236.0710971533</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5460353002057146</v>
+        <v>304335.8040467956</v>
       </c>
       <c r="G40" t="n">
         <v>322</v>
       </c>
       <c r="H40" t="n">
-        <v>15.81999030010943</v>
+        <v>272.535093130432</v>
       </c>
       <c r="I40" t="n">
-        <v>4.106305928985025</v>
+        <v>186.5588539651125</v>
       </c>
       <c r="J40" t="n">
-        <v>1.83804691207618</v>
+        <v>122.2710682233438</v>
       </c>
       <c r="K40" t="n">
-        <v>1.036489862214919</v>
+        <v>82.47977180728003</v>
       </c>
       <c r="L40" t="n">
-        <v>0.66412310334238</v>
+        <v>58.14918892563885</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4614874319380723</v>
+        <v>42.73973983074079</v>
       </c>
       <c r="N40" t="n">
-        <v>0.3391809590425209</v>
+        <v>32.54674722601372</v>
       </c>
     </row>
     <row r="41">
@@ -2555,34 +2555,34 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5.229293788007805</v>
+        <v>232120.0991507133</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4270859564476012</v>
+        <v>171162.2864404067</v>
       </c>
       <c r="G41" t="n">
         <v>332</v>
       </c>
       <c r="H41" t="n">
-        <v>9.942863477716408</v>
+        <v>237.5922641722845</v>
       </c>
       <c r="I41" t="n">
-        <v>2.542831131755761</v>
+        <v>128.214655666024</v>
       </c>
       <c r="J41" t="n">
-        <v>1.134976576920914</v>
+        <v>72.54979934070136</v>
       </c>
       <c r="K41" t="n">
-        <v>0.6393806072911864</v>
+        <v>45.12322409776009</v>
       </c>
       <c r="L41" t="n">
-        <v>0.4094874880915794</v>
+        <v>30.36456506934927</v>
       </c>
       <c r="M41" t="n">
-        <v>0.2844735209992535</v>
+        <v>21.69272780886226</v>
       </c>
       <c r="N41" t="n">
-        <v>0.2090484765683265</v>
+        <v>16.21866454084854</v>
       </c>
     </row>
     <row r="42">
@@ -2607,34 +2607,34 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5.315071285749745</v>
+        <v>296800.1907630952</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3985307431043084</v>
+        <v>347930.0545540618</v>
       </c>
       <c r="G42" t="n">
         <v>263</v>
       </c>
       <c r="H42" t="n">
-        <v>8.364515316921137</v>
+        <v>233.8722600786372</v>
       </c>
       <c r="I42" t="n">
-        <v>2.142227775155052</v>
+        <v>175.5460904837138</v>
       </c>
       <c r="J42" t="n">
-        <v>0.9564292632558952</v>
+        <v>124.0033998471114</v>
       </c>
       <c r="K42" t="n">
-        <v>0.5388487788285392</v>
+        <v>87.87968229955111</v>
       </c>
       <c r="L42" t="n">
-        <v>0.3451177730685357</v>
+        <v>63.93368008580124</v>
       </c>
       <c r="M42" t="n">
-        <v>0.239761255016901</v>
+        <v>47.96085785079759</v>
       </c>
       <c r="N42" t="n">
-        <v>0.1761937409887538</v>
+        <v>37.02801602394921</v>
       </c>
     </row>
     <row r="43">
@@ -2659,34 +2659,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5.290024598912718</v>
+        <v>274316.8211298087</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4294870589121006</v>
+        <v>234388.4336760273</v>
       </c>
       <c r="G43" t="n">
         <v>239</v>
       </c>
       <c r="H43" t="n">
-        <v>9.716971401834385</v>
+        <v>197.0258825352014</v>
       </c>
       <c r="I43" t="n">
-        <v>2.5056464969674</v>
+        <v>129.0389191479856</v>
       </c>
       <c r="J43" t="n">
-        <v>1.120144809713439</v>
+        <v>81.92373752708893</v>
       </c>
       <c r="K43" t="n">
-        <v>0.6313760758719047</v>
+        <v>54.21200585519151</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4044653459113829</v>
+        <v>37.7807976212494</v>
       </c>
       <c r="M43" t="n">
-        <v>0.2810240296508015</v>
+        <v>27.56826196828109</v>
       </c>
       <c r="N43" t="n">
-        <v>0.2065310625569395</v>
+        <v>20.89363342600424</v>
       </c>
     </row>
     <row r="44">
@@ -2711,34 +2711,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5.250190011776325</v>
+        <v>260208.7135594412</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4638677854799723</v>
+        <v>233906.2463489783</v>
       </c>
       <c r="G44" t="n">
         <v>267</v>
       </c>
       <c r="H44" t="n">
-        <v>11.47955139550944</v>
+        <v>219.7476511978849</v>
       </c>
       <c r="I44" t="n">
-        <v>2.965513595314132</v>
+        <v>143.5391105441858</v>
       </c>
       <c r="J44" t="n">
-        <v>1.326189213695948</v>
+        <v>90.96265681176682</v>
       </c>
       <c r="K44" t="n">
-        <v>0.7476060275890786</v>
+        <v>60.12862353703631</v>
       </c>
       <c r="L44" t="n">
-        <v>0.4789506437984323</v>
+        <v>41.87741769266331</v>
       </c>
       <c r="M44" t="n">
-        <v>0.332787018464283</v>
+        <v>30.54541808660369</v>
       </c>
       <c r="N44" t="n">
-        <v>0.2445774608369924</v>
+        <v>23.1439895694501</v>
       </c>
     </row>
     <row r="45">
@@ -2763,34 +2763,34 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5.398708255370416</v>
+        <v>416248.6889600678</v>
       </c>
       <c r="F45" t="n">
-        <v>0.4859180863416717</v>
+        <v>453186.7528272774</v>
       </c>
       <c r="G45" t="n">
         <v>157</v>
       </c>
       <c r="H45" t="n">
-        <v>11.53401087463285</v>
+        <v>144.5413504220915</v>
       </c>
       <c r="I45" t="n">
-        <v>3.051644607622374</v>
+        <v>116.7479421404929</v>
       </c>
       <c r="J45" t="n">
-        <v>1.371092175374755</v>
+        <v>88.41338312043951</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7741973388531095</v>
+        <v>65.99106936096838</v>
       </c>
       <c r="L45" t="n">
-        <v>0.4963674630624145</v>
+        <v>49.76450506612747</v>
       </c>
       <c r="M45" t="n">
-        <v>0.3450329417738448</v>
+        <v>38.264711834758</v>
       </c>
       <c r="N45" t="n">
-        <v>0.25364147634829</v>
+        <v>30.05633876671842</v>
       </c>
     </row>
     <row r="46">
@@ -3959,34 +3959,34 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>2.713900802350936</v>
+        <v>653.2055557136636</v>
       </c>
       <c r="F68" t="n">
-        <v>0.3478620704709626</v>
+        <v>415.843108403406</v>
       </c>
       <c r="G68" t="n">
         <v>176</v>
       </c>
       <c r="H68" t="n">
-        <v>22.07918492543499</v>
+        <v>137.2206358407403</v>
       </c>
       <c r="I68" t="n">
-        <v>6.093078349123501</v>
+        <v>82.61267528728243</v>
       </c>
       <c r="J68" t="n">
-        <v>2.761140392361675</v>
+        <v>49.66906169972442</v>
       </c>
       <c r="K68" t="n">
-        <v>1.563875332723543</v>
+        <v>31.87427202373118</v>
       </c>
       <c r="L68" t="n">
-        <v>1.004092138931867</v>
+        <v>21.82229011854562</v>
       </c>
       <c r="M68" t="n">
-        <v>0.6985038503435597</v>
+        <v>15.75111357200829</v>
       </c>
       <c r="N68" t="n">
-        <v>0.513727426180958</v>
+        <v>11.85369566071947</v>
       </c>
     </row>
     <row r="69">
@@ -4011,34 +4011,34 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>2.732489701114797</v>
+        <v>648.8240079510608</v>
       </c>
       <c r="F69" t="n">
-        <v>0.3194135593562477</v>
+        <v>315.8556032329136</v>
       </c>
       <c r="G69" t="n">
         <v>163</v>
       </c>
       <c r="H69" t="n">
-        <v>18.60107784721382</v>
+        <v>112.6000019285845</v>
       </c>
       <c r="I69" t="n">
-        <v>5.085528569883011</v>
+        <v>58.41438781772926</v>
       </c>
       <c r="J69" t="n">
-        <v>2.300102808656563</v>
+        <v>32.41575558899943</v>
       </c>
       <c r="K69" t="n">
-        <v>1.301844884905145</v>
+        <v>19.97149172155596</v>
       </c>
       <c r="L69" t="n">
-        <v>0.8355832288599391</v>
+        <v>13.37155830779222</v>
       </c>
       <c r="M69" t="n">
-        <v>0.5811764642085481</v>
+        <v>9.524546423077597</v>
       </c>
       <c r="N69" t="n">
-        <v>0.427391080162038</v>
+        <v>7.107815417994105</v>
       </c>
     </row>
     <row r="70">
@@ -4063,34 +4063,34 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2.659132840621687</v>
+        <v>619.0734850451031</v>
       </c>
       <c r="F70" t="n">
-        <v>0.3988132866333364</v>
+        <v>424.5198838173702</v>
       </c>
       <c r="G70" t="n">
         <v>141</v>
       </c>
       <c r="H70" t="n">
-        <v>27.7596196161938</v>
+        <v>117.978297515542</v>
       </c>
       <c r="I70" t="n">
-        <v>8.142155671598498</v>
+        <v>79.18944822087465</v>
       </c>
       <c r="J70" t="n">
-        <v>3.738676296973947</v>
+        <v>51.15710172323358</v>
       </c>
       <c r="K70" t="n">
-        <v>2.127687663521606</v>
+        <v>34.20535973327481</v>
       </c>
       <c r="L70" t="n">
-        <v>1.369157909915976</v>
+        <v>23.98621428436699</v>
       </c>
       <c r="M70" t="n">
-        <v>0.9536335809731827</v>
+        <v>17.57039503890865</v>
       </c>
       <c r="N70" t="n">
-        <v>0.7018881938040206</v>
+        <v>13.35022711731588</v>
       </c>
     </row>
     <row r="71">
@@ -4115,34 +4115,34 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>2.605194602025529</v>
+        <v>688.4361316242756</v>
       </c>
       <c r="F71" t="n">
-        <v>0.5267439969128751</v>
+        <v>611.6699792043464</v>
       </c>
       <c r="G71" t="n">
         <v>129</v>
       </c>
       <c r="H71" t="n">
-        <v>42.24633936102556</v>
+        <v>116.6003246269877</v>
       </c>
       <c r="I71" t="n">
-        <v>14.00031863130684</v>
+        <v>90.50258733831741</v>
       </c>
       <c r="J71" t="n">
-        <v>6.621608582047029</v>
+        <v>65.91416764690169</v>
       </c>
       <c r="K71" t="n">
-        <v>3.810220982290412</v>
+        <v>47.75134729372036</v>
       </c>
       <c r="L71" t="n">
-        <v>2.464749541462997</v>
+        <v>35.25953254941773</v>
       </c>
       <c r="M71" t="n">
-        <v>1.721683023923239</v>
+        <v>26.71713221217889</v>
       </c>
       <c r="N71" t="n">
-        <v>1.269404782111938</v>
+        <v>20.77018160706013</v>
       </c>
     </row>
     <row r="72">
@@ -4167,34 +4167,34 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>2.621137453766787</v>
+        <v>572.102799940772</v>
       </c>
       <c r="F72" t="n">
-        <v>0.4012130410909803</v>
+        <v>382.4894875065459</v>
       </c>
       <c r="G72" t="n">
         <v>390</v>
       </c>
       <c r="H72" t="n">
-        <v>32.96053411863123</v>
+        <v>248.7549276548681</v>
       </c>
       <c r="I72" t="n">
-        <v>8.797786905560034</v>
+        <v>119.2211173295928</v>
       </c>
       <c r="J72" t="n">
-        <v>3.959752959070216</v>
+        <v>63.82693284353243</v>
       </c>
       <c r="K72" t="n">
-        <v>2.237299190861512</v>
+        <v>38.67156160918022</v>
       </c>
       <c r="L72" t="n">
-        <v>1.434834701705656</v>
+        <v>25.66599395270891</v>
       </c>
       <c r="M72" t="n">
-        <v>0.9975343737836386</v>
+        <v>18.18937124320225</v>
       </c>
       <c r="N72" t="n">
-        <v>0.7333800649729171</v>
+        <v>13.53104912827388</v>
       </c>
     </row>
     <row r="73">
@@ -4219,34 +4219,34 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2.638851140934431</v>
+        <v>581.3141080587039</v>
       </c>
       <c r="F73" t="n">
-        <v>0.3729467115738689</v>
+        <v>394.4449273541979</v>
       </c>
       <c r="G73" t="n">
         <v>161</v>
       </c>
       <c r="H73" t="n">
-        <v>25.77840748638183</v>
+        <v>131.1541050608886</v>
       </c>
       <c r="I73" t="n">
-        <v>7.324124896766237</v>
+        <v>84.28197510565535</v>
       </c>
       <c r="J73" t="n">
-        <v>3.339567622752687</v>
+        <v>52.82027403284531</v>
       </c>
       <c r="K73" t="n">
-        <v>1.895710190993946</v>
+        <v>34.69067273044841</v>
       </c>
       <c r="L73" t="n">
-        <v>1.218419224763226</v>
+        <v>24.06904744988671</v>
       </c>
       <c r="M73" t="n">
-        <v>0.8480855660816983</v>
+        <v>17.5146816288714</v>
       </c>
       <c r="N73" t="n">
-        <v>0.6239552691036151</v>
+        <v>13.25035876786355</v>
       </c>
     </row>
     <row r="74">
@@ -4271,34 +4271,34 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2.619605695581555</v>
+        <v>527.9389717272579</v>
       </c>
       <c r="F74" t="n">
-        <v>0.3625795421130719</v>
+        <v>277.364640807579</v>
       </c>
       <c r="G74" t="n">
         <v>194</v>
       </c>
       <c r="H74" t="n">
-        <v>25.55946487222973</v>
+        <v>133.1138902965263</v>
       </c>
       <c r="I74" t="n">
-        <v>7.090494769562717</v>
+        <v>68.56106110414864</v>
       </c>
       <c r="J74" t="n">
-        <v>3.216644879524464</v>
+        <v>37.91589551053982</v>
       </c>
       <c r="K74" t="n">
-        <v>1.822583825437142</v>
+        <v>23.32185456402499</v>
       </c>
       <c r="L74" t="n">
-        <v>1.170412115851527</v>
+        <v>15.6011691436939</v>
       </c>
       <c r="M74" t="n">
-        <v>0.8142872752720923</v>
+        <v>11.10707139778972</v>
       </c>
       <c r="N74" t="n">
-        <v>0.5989188224478031</v>
+        <v>8.286160459504288</v>
       </c>
     </row>
     <row r="75">
@@ -4323,34 +4323,34 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>2.702005168800846</v>
+        <v>590.7487123391306</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2931263345414269</v>
+        <v>264.9920594256511</v>
       </c>
       <c r="G75" t="n">
         <v>183</v>
       </c>
       <c r="H75" t="n">
-        <v>16.45817539876165</v>
+        <v>114.9598767306149</v>
       </c>
       <c r="I75" t="n">
-        <v>4.412150166607204</v>
+        <v>54.34396916940368</v>
       </c>
       <c r="J75" t="n">
-        <v>1.987578257840839</v>
+        <v>28.92485964541777</v>
       </c>
       <c r="K75" t="n">
-        <v>1.123350622121271</v>
+        <v>17.47891751617758</v>
       </c>
       <c r="L75" t="n">
-        <v>0.7205366906291141</v>
+        <v>11.58484942858223</v>
       </c>
       <c r="M75" t="n">
-        <v>0.500975416284471</v>
+        <v>8.20372096682857</v>
       </c>
       <c r="N75" t="n">
-        <v>0.3683310878937482</v>
+        <v>6.099770754260182</v>
       </c>
     </row>
     <row r="76">
@@ -4375,34 +4375,34 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2.735396423535345</v>
+        <v>630.1178475175138</v>
       </c>
       <c r="F76" t="n">
-        <v>0.281890247073279</v>
+        <v>271.2606981167098</v>
       </c>
       <c r="G76" t="n">
         <v>217</v>
       </c>
       <c r="H76" t="n">
-        <v>15.1775419686555</v>
+        <v>123.1552058996452</v>
       </c>
       <c r="I76" t="n">
-        <v>4.004446511724721</v>
+        <v>53.60649260913761</v>
       </c>
       <c r="J76" t="n">
-        <v>1.798189110461393</v>
+        <v>27.61503385925062</v>
       </c>
       <c r="K76" t="n">
-        <v>1.01516172293198</v>
+        <v>16.44927784555685</v>
       </c>
       <c r="L76" t="n">
-        <v>0.6507995397342292</v>
+        <v>10.82288487433532</v>
       </c>
       <c r="M76" t="n">
-        <v>0.4523586592342118</v>
+        <v>7.632203988664031</v>
       </c>
       <c r="N76" t="n">
-        <v>0.3325290451468928</v>
+        <v>5.660149531196562</v>
       </c>
     </row>
     <row r="77">
@@ -4427,34 +4427,34 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>2.647039941561296</v>
+        <v>557.6489463942885</v>
       </c>
       <c r="F77" t="n">
-        <v>0.362087651751917</v>
+        <v>281.9721651923534</v>
       </c>
       <c r="G77" t="n">
         <v>109</v>
       </c>
       <c r="H77" t="n">
-        <v>22.7512343624334</v>
+        <v>85.32713500755051</v>
       </c>
       <c r="I77" t="n">
-        <v>6.743465716240635</v>
+        <v>51.66498337015295</v>
       </c>
       <c r="J77" t="n">
-        <v>3.103773710836801</v>
+        <v>31.17020812620848</v>
       </c>
       <c r="K77" t="n">
-        <v>1.767896830430757</v>
+        <v>20.04050528472824</v>
       </c>
       <c r="L77" t="n">
-        <v>1.138099247981741</v>
+        <v>13.73502879679196</v>
       </c>
       <c r="M77" t="n">
-        <v>0.7928762848340668</v>
+        <v>9.920169580713516</v>
       </c>
       <c r="N77" t="n">
-        <v>0.5836477115274404</v>
+        <v>7.46862301510873</v>
       </c>
     </row>
     <row r="78">
@@ -4479,34 +4479,34 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>2.642334904397704</v>
+        <v>515.0029259638379</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2933081125974278</v>
+        <v>247.4724020879358</v>
       </c>
       <c r="G78" t="n">
         <v>89</v>
       </c>
       <c r="H78" t="n">
-        <v>15.61262439882857</v>
+        <v>71.15261527747603</v>
       </c>
       <c r="I78" t="n">
-        <v>4.494481862517539</v>
+        <v>44.42603520815892</v>
       </c>
       <c r="J78" t="n">
-        <v>2.055207242743279</v>
+        <v>27.32163239384742</v>
       </c>
       <c r="K78" t="n">
-        <v>1.167852708463204</v>
+        <v>17.75270969480705</v>
       </c>
       <c r="L78" t="n">
-        <v>0.7509732549210287</v>
+        <v>12.24072491130071</v>
       </c>
       <c r="M78" t="n">
-        <v>0.5228572603635163</v>
+        <v>8.873408034383532</v>
       </c>
       <c r="N78" t="n">
-        <v>0.3847396912259813</v>
+        <v>6.696366437723118</v>
       </c>
     </row>
     <row r="79">
@@ -4531,34 +4531,34 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>2.547270899936545</v>
+        <v>436.6146587287615</v>
       </c>
       <c r="F79" t="n">
-        <v>0.3085268631415091</v>
+        <v>307.7522720811787</v>
       </c>
       <c r="G79" t="n">
         <v>91</v>
       </c>
       <c r="H79" t="n">
-        <v>18.06714916914593</v>
+        <v>81.30833457812075</v>
       </c>
       <c r="I79" t="n">
-        <v>5.307031169655811</v>
+        <v>61.62030961250508</v>
       </c>
       <c r="J79" t="n">
-        <v>2.437659361182805</v>
+        <v>43.90264369346119</v>
       </c>
       <c r="K79" t="n">
-        <v>1.387443557862133</v>
+        <v>31.30220637156163</v>
       </c>
       <c r="L79" t="n">
-        <v>0.8928646213846656</v>
+        <v>22.8648304378661</v>
       </c>
       <c r="M79" t="n">
-        <v>0.6219093721879089</v>
+        <v>17.19878166605622</v>
       </c>
       <c r="N79" t="n">
-        <v>0.4577429633536903</v>
+        <v>13.30287529926839</v>
       </c>
     </row>
     <row r="80">
@@ -4583,34 +4583,34 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>2.551915923083666</v>
+        <v>443.3871620433169</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3164773383572003</v>
+        <v>302.3039528046952</v>
       </c>
       <c r="G80" t="n">
         <v>84</v>
       </c>
       <c r="H80" t="n">
-        <v>18.44408923384314</v>
+        <v>75.16145263003679</v>
       </c>
       <c r="I80" t="n">
-        <v>5.520062755184296</v>
+        <v>57.12822095034557</v>
       </c>
       <c r="J80" t="n">
-        <v>2.546323290385586</v>
+        <v>40.80943814017649</v>
       </c>
       <c r="K80" t="n">
-        <v>1.451557552948179</v>
+        <v>29.15141834862287</v>
       </c>
       <c r="L80" t="n">
-        <v>0.9348122644714725</v>
+        <v>21.32058793610752</v>
       </c>
       <c r="M80" t="n">
-        <v>0.6513901978820753</v>
+        <v>16.05078311047585</v>
       </c>
       <c r="N80" t="n">
-        <v>0.4795590133438221</v>
+        <v>12.42215173685542</v>
       </c>
     </row>
     <row r="81">
@@ -4635,34 +4635,34 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>2.5807359701773</v>
+        <v>468.3299254764544</v>
       </c>
       <c r="F81" t="n">
-        <v>0.3083959690778288</v>
+        <v>314.2077770661307</v>
       </c>
       <c r="G81" t="n">
         <v>129</v>
       </c>
       <c r="H81" t="n">
-        <v>18.75332055555936</v>
+        <v>108.722792985456</v>
       </c>
       <c r="I81" t="n">
-        <v>5.26205714089491</v>
+        <v>73.88252925417611</v>
       </c>
       <c r="J81" t="n">
-        <v>2.392919800447407</v>
+        <v>48.16067982334224</v>
       </c>
       <c r="K81" t="n">
-        <v>1.357030398591878</v>
+        <v>32.37903233522549</v>
       </c>
       <c r="L81" t="n">
-        <v>0.8718010192419687</v>
+        <v>22.78108125220949</v>
       </c>
       <c r="M81" t="n">
-        <v>0.6066701419432251</v>
+        <v>16.72255007092697</v>
       </c>
       <c r="N81" t="n">
-        <v>0.4462736546278309</v>
+        <v>12.72354600315002</v>
       </c>
     </row>
     <row r="82">
@@ -4687,34 +4687,34 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>2.657067860448646</v>
+        <v>503.3223187388718</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1928026320082109</v>
+        <v>254.0656992183833</v>
       </c>
       <c r="G82" t="n">
         <v>108</v>
       </c>
       <c r="H82" t="n">
-        <v>7.52694286676695</v>
+        <v>84.65033694296642</v>
       </c>
       <c r="I82" t="n">
-        <v>1.985519698141395</v>
+        <v>51.3467469397139</v>
       </c>
       <c r="J82" t="n">
-        <v>0.891559209318819</v>
+        <v>31.01194024383139</v>
       </c>
       <c r="K82" t="n">
-        <v>0.5033198655598976</v>
+        <v>19.95054494877757</v>
       </c>
       <c r="L82" t="n">
-        <v>0.3226660614205176</v>
+        <v>13.67795780736183</v>
       </c>
       <c r="M82" t="n">
-        <v>0.2242783958664128</v>
+        <v>9.88095424584878</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1648667974149167</v>
+        <v>7.440068945334969</v>
       </c>
     </row>
     <row r="83">
@@ -4739,34 +4739,34 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>2.569619417752859</v>
+        <v>431.7326917541799</v>
       </c>
       <c r="F83" t="n">
-        <v>0.2821963074326788</v>
+        <v>197.4065385792462</v>
       </c>
       <c r="G83" t="n">
         <v>163</v>
       </c>
       <c r="H83" t="n">
-        <v>16.64064167154016</v>
+        <v>108.1355719277418</v>
       </c>
       <c r="I83" t="n">
-        <v>4.505104412790505</v>
+        <v>53.80482162924432</v>
       </c>
       <c r="J83" t="n">
-        <v>2.033492541409553</v>
+        <v>29.2833469695141</v>
       </c>
       <c r="K83" t="n">
-        <v>1.150116885354539</v>
+        <v>17.87697618022885</v>
       </c>
       <c r="L83" t="n">
-        <v>0.7379492978002596</v>
+        <v>11.91156790666669</v>
       </c>
       <c r="M83" t="n">
-        <v>0.5131746854844721</v>
+        <v>8.460845346364705</v>
       </c>
       <c r="N83" t="n">
-        <v>0.377341480113032</v>
+        <v>6.302930519224316</v>
       </c>
     </row>
     <row r="84">
@@ -4791,34 +4791,34 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>2.507096710730507</v>
+        <v>372.0271016503017</v>
       </c>
       <c r="F84" t="n">
-        <v>0.2735976271637688</v>
+        <v>181.4531223667686</v>
       </c>
       <c r="G84" t="n">
         <v>322</v>
       </c>
       <c r="H84" t="n">
-        <v>17.31603065857587</v>
+        <v>171.1988143136088</v>
       </c>
       <c r="I84" t="n">
-        <v>4.510944755527158</v>
+        <v>71.18513042259924</v>
       </c>
       <c r="J84" t="n">
-        <v>2.020590304104843</v>
+        <v>36.06757137552585</v>
       </c>
       <c r="K84" t="n">
-        <v>1.13971097124645</v>
+        <v>21.3334515430474</v>
       </c>
       <c r="L84" t="n">
-        <v>0.7303456360583441</v>
+        <v>13.98701415505074</v>
       </c>
       <c r="M84" t="n">
-        <v>0.5075362159881852</v>
+        <v>9.843858874723106</v>
       </c>
       <c r="N84" t="n">
-        <v>0.373039746551715</v>
+        <v>7.291360673530514</v>
       </c>
     </row>
     <row r="85">
@@ -4843,34 +4843,34 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>2.494413721306275</v>
+        <v>343.6992641840537</v>
       </c>
       <c r="F85" t="n">
-        <v>0.214681846926371</v>
+        <v>134.1214850098259</v>
       </c>
       <c r="G85" t="n">
         <v>332</v>
       </c>
       <c r="H85" t="n">
-        <v>11.00490061001338</v>
+        <v>137.2571679430028</v>
       </c>
       <c r="I85" t="n">
-        <v>2.821365622982481</v>
+        <v>49.73582457598277</v>
       </c>
       <c r="J85" t="n">
-        <v>1.25988841251676</v>
+        <v>24.11151449564544</v>
       </c>
       <c r="K85" t="n">
-        <v>0.709865782816183</v>
+        <v>14.00780323187715</v>
       </c>
       <c r="L85" t="n">
-        <v>0.4546640713882112</v>
+        <v>9.103265241220589</v>
       </c>
       <c r="M85" t="n">
-        <v>0.3158711144777878</v>
+        <v>6.375123860446027</v>
       </c>
       <c r="N85" t="n">
-        <v>0.2321271668126372</v>
+        <v>4.707747883343483</v>
       </c>
     </row>
     <row r="86">
@@ -4895,34 +4895,34 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>2.540270575482978</v>
+        <v>385.5530775788046</v>
       </c>
       <c r="F86" t="n">
-        <v>0.2071263733225719</v>
+        <v>194.9912564950651</v>
       </c>
       <c r="G86" t="n">
         <v>263</v>
       </c>
       <c r="H86" t="n">
-        <v>9.834052485958873</v>
+        <v>157.5654889233703</v>
       </c>
       <c r="I86" t="n">
-        <v>2.529448666001107</v>
+        <v>71.53369729302445</v>
       </c>
       <c r="J86" t="n">
-        <v>1.13023844413055</v>
+        <v>37.45198293330579</v>
       </c>
       <c r="K86" t="n">
-        <v>0.6369566986438657</v>
+        <v>22.46642813313609</v>
       </c>
       <c r="L86" t="n">
-        <v>0.4080080211213339</v>
+        <v>14.83471907749112</v>
       </c>
       <c r="M86" t="n">
-        <v>0.283473277561679</v>
+        <v>10.48255613269673</v>
       </c>
       <c r="N86" t="n">
-        <v>0.2083256540530292</v>
+        <v>7.783779172160278</v>
       </c>
     </row>
     <row r="87">
@@ -4947,34 +4947,34 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>2.526413518271149</v>
+        <v>372.5419144423004</v>
       </c>
       <c r="F87" t="n">
-        <v>0.216458218942793</v>
+        <v>164.9798014315503</v>
       </c>
       <c r="G87" t="n">
         <v>239</v>
       </c>
       <c r="H87" t="n">
-        <v>10.77167080468122</v>
+        <v>133.2905439444184</v>
       </c>
       <c r="I87" t="n">
-        <v>2.787129115356809</v>
+        <v>57.28253012470755</v>
       </c>
       <c r="J87" t="n">
-        <v>1.246801683237211</v>
+        <v>29.36955397532513</v>
       </c>
       <c r="K87" t="n">
-        <v>0.702930262312497</v>
+        <v>17.45900992172799</v>
       </c>
       <c r="L87" t="n">
-        <v>0.4503522039864299</v>
+        <v>11.47555143737398</v>
       </c>
       <c r="M87" t="n">
-        <v>0.3129247569400962</v>
+        <v>8.087790593324264</v>
       </c>
       <c r="N87" t="n">
-        <v>0.2299837919734637</v>
+        <v>5.995881212247832</v>
       </c>
     </row>
     <row r="88">
@@ -4999,34 +4999,34 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>2.500328783598706</v>
+        <v>354.0307131732194</v>
       </c>
       <c r="F88" t="n">
-        <v>0.2322248000463061</v>
+        <v>154.5142012569641</v>
       </c>
       <c r="G88" t="n">
         <v>267</v>
       </c>
       <c r="H88" t="n">
-        <v>12.62851411017338</v>
+        <v>139.630645084971</v>
       </c>
       <c r="I88" t="n">
-        <v>3.273241378482005</v>
+        <v>57.43478514987814</v>
       </c>
       <c r="J88" t="n">
-        <v>1.464749976437289</v>
+        <v>28.9912064543375</v>
       </c>
       <c r="K88" t="n">
-        <v>0.8259041185970478</v>
+        <v>17.12086882226115</v>
       </c>
       <c r="L88" t="n">
-        <v>0.5291679059510377</v>
+        <v>11.21627612564686</v>
       </c>
       <c r="M88" t="n">
-        <v>0.3677003849243615</v>
+        <v>7.890360826262442</v>
       </c>
       <c r="N88" t="n">
-        <v>0.2702459607094754</v>
+        <v>5.842809188073247</v>
       </c>
     </row>
     <row r="89">
@@ -5051,34 +5051,34 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2.582479565102183</v>
+        <v>445.246725638686</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2514905400233107</v>
+        <v>248.8253774075216</v>
       </c>
       <c r="G89" t="n">
         <v>157</v>
       </c>
       <c r="H89" t="n">
-        <v>13.33499882880175</v>
+        <v>118.2990986617175</v>
       </c>
       <c r="I89" t="n">
-        <v>3.560565657210502</v>
+        <v>68.00723030878493</v>
       </c>
       <c r="J89" t="n">
-        <v>1.602666116346344</v>
+        <v>39.80426805187495</v>
       </c>
       <c r="K89" t="n">
-        <v>0.9055438749178961</v>
+        <v>25.18321086238544</v>
       </c>
       <c r="L89" t="n">
-        <v>0.5807539611528566</v>
+        <v>17.10498109495937</v>
       </c>
       <c r="M89" t="n">
-        <v>0.4037577176853807</v>
+        <v>12.28750966443246</v>
       </c>
       <c r="N89" t="n">
-        <v>0.2968408544878177</v>
+        <v>9.218981255680813</v>
       </c>
     </row>
   </sheetData>

--- a/src/zia/statistics/lobulus_geometry/plotting/n_lobuli.xlsx
+++ b/src/zia/statistics/lobulus_geometry/plotting/n_lobuli.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
